--- a/public/出勤簿.xlsx
+++ b/public/出勤簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
   <si>
     <t>出勤簿</t>
   </si>
@@ -23,10 +23,13 @@
     <t>名前：</t>
   </si>
   <si>
-    <t>上司次郎</t>
+    <t>田中太郎</t>
   </si>
   <si>
     <t>月日</t>
+  </si>
+  <si>
+    <t>曜日</t>
   </si>
   <si>
     <t>始業時刻</t>
@@ -54,25 +57,79 @@
     <t>2/1</t>
   </si>
   <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
     <t>2/2</t>
+  </si>
+  <si>
+    <t>木</t>
   </si>
   <si>
     <t>2/3</t>
   </si>
   <si>
+    <t>金</t>
+  </si>
+  <si>
     <t>2/4</t>
+  </si>
+  <si>
+    <t>土</t>
   </si>
   <si>
     <t>2/5</t>
   </si>
   <si>
+    <t>日</t>
+  </si>
+  <si>
     <t>2/6</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>07:00</t>
   </si>
   <si>
     <t>2/7</t>
   </si>
   <si>
+    <t>火</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>18:45</t>
+  </si>
+  <si>
+    <t>00:15</t>
+  </si>
+  <si>
     <t>2/8</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>00:30</t>
   </si>
   <si>
     <t>2/9</t>
@@ -90,16 +147,46 @@
     <t>2/13</t>
   </si>
   <si>
+    <t>18:50</t>
+  </si>
+  <si>
+    <t>00:50</t>
+  </si>
+  <si>
     <t>2/14</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>00:45</t>
   </si>
   <si>
     <t>2/15</t>
   </si>
   <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
     <t>2/16</t>
   </si>
   <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>06:15</t>
+  </si>
+  <si>
     <t>2/17</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>06:45</t>
   </si>
   <si>
     <t>2/18</t>
@@ -111,13 +198,46 @@
     <t>2/20</t>
   </si>
   <si>
+    <t>2/21</t>
+  </si>
+  <si>
+    <t>2/22</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>2/24</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>2/26</t>
+  </si>
+  <si>
+    <t>2/27</t>
+  </si>
+  <si>
+    <t>2/28</t>
+  </si>
+  <si>
     <t>：</t>
   </si>
   <si>
     <t>合計勤務時間</t>
   </si>
   <si>
+    <t>98:00</t>
+  </si>
+  <si>
+    <t>02:50</t>
+  </si>
+  <si>
     <t>総合計</t>
+  </si>
+  <si>
+    <t>100:50</t>
   </si>
 </sst>
 </file>
@@ -133,7 +253,7 @@
     <numFmt numFmtId="169" formatCode="[h]:mm"/>
     <numFmt numFmtId="170" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <b val="0"/>
       <i val="0"/>
@@ -224,6 +344,24 @@
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
     </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="游ゴシック"/>
+    </font>
+    <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -291,25 +429,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -324,6 +443,25 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -332,7 +470,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -438,10 +576,22 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="170" fillId="0" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -453,40 +603,34 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="6" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="7" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="8" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="4" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="7" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="4" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="6" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="9" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="2" borderId="7" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    <xf xfId="0" fontId="10" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="170" fillId="0" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
+    <xf xfId="0" fontId="11" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
       <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -788,23 +932,23 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:WVQ48"/>
+  <dimension ref="A1:WVR48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A28">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.09765625" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="true" style="8"/>
-    <col min="2" max="2" width="9" customWidth="true" style="8"/>
+    <col min="2" max="2" width="5" customWidth="true" style="8"/>
     <col min="3" max="3" width="9" customWidth="true" style="8"/>
-    <col min="4" max="4" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4" max="4" width="9" customWidth="true" style="8"/>
     <col min="5" max="5" width="8.69921875" customWidth="true" style="8"/>
-    <col min="6" max="6" width="31.8984375" customWidth="true" style="8"/>
-    <col min="7" max="7" width="6.8984375" customWidth="true" style="8"/>
-    <col min="8" max="8" width="3.3984375" customWidth="true" style="8"/>
-    <col min="9" max="9" width="8.09765625" style="8"/>
+    <col min="6" max="6" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7" max="7" width="31.8984375" customWidth="true" style="8"/>
+    <col min="8" max="8" width="6.8984375" customWidth="true" style="8"/>
+    <col min="9" max="9" width="3.3984375" customWidth="true" style="8"/>
     <col min="10" max="10" width="8.09765625" style="8"/>
     <col min="11" max="11" width="8.09765625" style="8"/>
     <col min="12" max="12" width="8.09765625" style="8"/>
@@ -1051,16 +1195,16 @@
     <col min="253" max="253" width="8.09765625" style="8"/>
     <col min="254" max="254" width="8.09765625" style="8"/>
     <col min="255" max="255" width="8.09765625" style="8"/>
-    <col min="256" max="256" width="6.3984375" customWidth="true" style="8"/>
-    <col min="257" max="257" width="4.5" customWidth="true" style="8"/>
-    <col min="258" max="258" width="8.69921875" customWidth="true" style="8"/>
+    <col min="256" max="256" width="8.09765625" style="8"/>
+    <col min="257" max="257" width="6.3984375" customWidth="true" style="8"/>
+    <col min="258" max="258" width="4.5" customWidth="true" style="8"/>
     <col min="259" max="259" width="8.69921875" customWidth="true" style="8"/>
     <col min="260" max="260" width="8.69921875" customWidth="true" style="8"/>
     <col min="261" max="261" width="8.69921875" customWidth="true" style="8"/>
     <col min="262" max="262" width="8.69921875" customWidth="true" style="8"/>
-    <col min="263" max="263" width="22" customWidth="true" style="8"/>
-    <col min="264" max="264" width="5.5" customWidth="true" style="8"/>
-    <col min="265" max="265" width="8.09765625" style="8"/>
+    <col min="263" max="263" width="8.69921875" customWidth="true" style="8"/>
+    <col min="264" max="264" width="22" customWidth="true" style="8"/>
+    <col min="265" max="265" width="5.5" customWidth="true" style="8"/>
     <col min="266" max="266" width="8.09765625" style="8"/>
     <col min="267" max="267" width="8.09765625" style="8"/>
     <col min="268" max="268" width="8.09765625" style="8"/>
@@ -1307,16 +1451,16 @@
     <col min="509" max="509" width="8.09765625" style="8"/>
     <col min="510" max="510" width="8.09765625" style="8"/>
     <col min="511" max="511" width="8.09765625" style="8"/>
-    <col min="512" max="512" width="6.3984375" customWidth="true" style="8"/>
-    <col min="513" max="513" width="4.5" customWidth="true" style="8"/>
-    <col min="514" max="514" width="8.69921875" customWidth="true" style="8"/>
+    <col min="512" max="512" width="8.09765625" style="8"/>
+    <col min="513" max="513" width="6.3984375" customWidth="true" style="8"/>
+    <col min="514" max="514" width="4.5" customWidth="true" style="8"/>
     <col min="515" max="515" width="8.69921875" customWidth="true" style="8"/>
     <col min="516" max="516" width="8.69921875" customWidth="true" style="8"/>
     <col min="517" max="517" width="8.69921875" customWidth="true" style="8"/>
     <col min="518" max="518" width="8.69921875" customWidth="true" style="8"/>
-    <col min="519" max="519" width="22" customWidth="true" style="8"/>
-    <col min="520" max="520" width="5.5" customWidth="true" style="8"/>
-    <col min="521" max="521" width="8.09765625" style="8"/>
+    <col min="519" max="519" width="8.69921875" customWidth="true" style="8"/>
+    <col min="520" max="520" width="22" customWidth="true" style="8"/>
+    <col min="521" max="521" width="5.5" customWidth="true" style="8"/>
     <col min="522" max="522" width="8.09765625" style="8"/>
     <col min="523" max="523" width="8.09765625" style="8"/>
     <col min="524" max="524" width="8.09765625" style="8"/>
@@ -1563,16 +1707,16 @@
     <col min="765" max="765" width="8.09765625" style="8"/>
     <col min="766" max="766" width="8.09765625" style="8"/>
     <col min="767" max="767" width="8.09765625" style="8"/>
-    <col min="768" max="768" width="6.3984375" customWidth="true" style="8"/>
-    <col min="769" max="769" width="4.5" customWidth="true" style="8"/>
-    <col min="770" max="770" width="8.69921875" customWidth="true" style="8"/>
+    <col min="768" max="768" width="8.09765625" style="8"/>
+    <col min="769" max="769" width="6.3984375" customWidth="true" style="8"/>
+    <col min="770" max="770" width="4.5" customWidth="true" style="8"/>
     <col min="771" max="771" width="8.69921875" customWidth="true" style="8"/>
     <col min="772" max="772" width="8.69921875" customWidth="true" style="8"/>
     <col min="773" max="773" width="8.69921875" customWidth="true" style="8"/>
     <col min="774" max="774" width="8.69921875" customWidth="true" style="8"/>
-    <col min="775" max="775" width="22" customWidth="true" style="8"/>
-    <col min="776" max="776" width="5.5" customWidth="true" style="8"/>
-    <col min="777" max="777" width="8.09765625" style="8"/>
+    <col min="775" max="775" width="8.69921875" customWidth="true" style="8"/>
+    <col min="776" max="776" width="22" customWidth="true" style="8"/>
+    <col min="777" max="777" width="5.5" customWidth="true" style="8"/>
     <col min="778" max="778" width="8.09765625" style="8"/>
     <col min="779" max="779" width="8.09765625" style="8"/>
     <col min="780" max="780" width="8.09765625" style="8"/>
@@ -1819,16 +1963,16 @@
     <col min="1021" max="1021" width="8.09765625" style="8"/>
     <col min="1022" max="1022" width="8.09765625" style="8"/>
     <col min="1023" max="1023" width="8.09765625" style="8"/>
-    <col min="1024" max="1024" width="6.3984375" customWidth="true" style="8"/>
-    <col min="1025" max="1025" width="4.5" customWidth="true" style="8"/>
-    <col min="1026" max="1026" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1024" max="1024" width="8.09765625" style="8"/>
+    <col min="1025" max="1025" width="6.3984375" customWidth="true" style="8"/>
+    <col min="1026" max="1026" width="4.5" customWidth="true" style="8"/>
     <col min="1027" max="1027" width="8.69921875" customWidth="true" style="8"/>
     <col min="1028" max="1028" width="8.69921875" customWidth="true" style="8"/>
     <col min="1029" max="1029" width="8.69921875" customWidth="true" style="8"/>
     <col min="1030" max="1030" width="8.69921875" customWidth="true" style="8"/>
-    <col min="1031" max="1031" width="22" customWidth="true" style="8"/>
-    <col min="1032" max="1032" width="5.5" customWidth="true" style="8"/>
-    <col min="1033" max="1033" width="8.09765625" style="8"/>
+    <col min="1031" max="1031" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1032" max="1032" width="22" customWidth="true" style="8"/>
+    <col min="1033" max="1033" width="5.5" customWidth="true" style="8"/>
     <col min="1034" max="1034" width="8.09765625" style="8"/>
     <col min="1035" max="1035" width="8.09765625" style="8"/>
     <col min="1036" max="1036" width="8.09765625" style="8"/>
@@ -2075,16 +2219,16 @@
     <col min="1277" max="1277" width="8.09765625" style="8"/>
     <col min="1278" max="1278" width="8.09765625" style="8"/>
     <col min="1279" max="1279" width="8.09765625" style="8"/>
-    <col min="1280" max="1280" width="6.3984375" customWidth="true" style="8"/>
-    <col min="1281" max="1281" width="4.5" customWidth="true" style="8"/>
-    <col min="1282" max="1282" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1280" max="1280" width="8.09765625" style="8"/>
+    <col min="1281" max="1281" width="6.3984375" customWidth="true" style="8"/>
+    <col min="1282" max="1282" width="4.5" customWidth="true" style="8"/>
     <col min="1283" max="1283" width="8.69921875" customWidth="true" style="8"/>
     <col min="1284" max="1284" width="8.69921875" customWidth="true" style="8"/>
     <col min="1285" max="1285" width="8.69921875" customWidth="true" style="8"/>
     <col min="1286" max="1286" width="8.69921875" customWidth="true" style="8"/>
-    <col min="1287" max="1287" width="22" customWidth="true" style="8"/>
-    <col min="1288" max="1288" width="5.5" customWidth="true" style="8"/>
-    <col min="1289" max="1289" width="8.09765625" style="8"/>
+    <col min="1287" max="1287" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1288" max="1288" width="22" customWidth="true" style="8"/>
+    <col min="1289" max="1289" width="5.5" customWidth="true" style="8"/>
     <col min="1290" max="1290" width="8.09765625" style="8"/>
     <col min="1291" max="1291" width="8.09765625" style="8"/>
     <col min="1292" max="1292" width="8.09765625" style="8"/>
@@ -2331,16 +2475,16 @@
     <col min="1533" max="1533" width="8.09765625" style="8"/>
     <col min="1534" max="1534" width="8.09765625" style="8"/>
     <col min="1535" max="1535" width="8.09765625" style="8"/>
-    <col min="1536" max="1536" width="6.3984375" customWidth="true" style="8"/>
-    <col min="1537" max="1537" width="4.5" customWidth="true" style="8"/>
-    <col min="1538" max="1538" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1536" max="1536" width="8.09765625" style="8"/>
+    <col min="1537" max="1537" width="6.3984375" customWidth="true" style="8"/>
+    <col min="1538" max="1538" width="4.5" customWidth="true" style="8"/>
     <col min="1539" max="1539" width="8.69921875" customWidth="true" style="8"/>
     <col min="1540" max="1540" width="8.69921875" customWidth="true" style="8"/>
     <col min="1541" max="1541" width="8.69921875" customWidth="true" style="8"/>
     <col min="1542" max="1542" width="8.69921875" customWidth="true" style="8"/>
-    <col min="1543" max="1543" width="22" customWidth="true" style="8"/>
-    <col min="1544" max="1544" width="5.5" customWidth="true" style="8"/>
-    <col min="1545" max="1545" width="8.09765625" style="8"/>
+    <col min="1543" max="1543" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1544" max="1544" width="22" customWidth="true" style="8"/>
+    <col min="1545" max="1545" width="5.5" customWidth="true" style="8"/>
     <col min="1546" max="1546" width="8.09765625" style="8"/>
     <col min="1547" max="1547" width="8.09765625" style="8"/>
     <col min="1548" max="1548" width="8.09765625" style="8"/>
@@ -2587,16 +2731,16 @@
     <col min="1789" max="1789" width="8.09765625" style="8"/>
     <col min="1790" max="1790" width="8.09765625" style="8"/>
     <col min="1791" max="1791" width="8.09765625" style="8"/>
-    <col min="1792" max="1792" width="6.3984375" customWidth="true" style="8"/>
-    <col min="1793" max="1793" width="4.5" customWidth="true" style="8"/>
-    <col min="1794" max="1794" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1792" max="1792" width="8.09765625" style="8"/>
+    <col min="1793" max="1793" width="6.3984375" customWidth="true" style="8"/>
+    <col min="1794" max="1794" width="4.5" customWidth="true" style="8"/>
     <col min="1795" max="1795" width="8.69921875" customWidth="true" style="8"/>
     <col min="1796" max="1796" width="8.69921875" customWidth="true" style="8"/>
     <col min="1797" max="1797" width="8.69921875" customWidth="true" style="8"/>
     <col min="1798" max="1798" width="8.69921875" customWidth="true" style="8"/>
-    <col min="1799" max="1799" width="22" customWidth="true" style="8"/>
-    <col min="1800" max="1800" width="5.5" customWidth="true" style="8"/>
-    <col min="1801" max="1801" width="8.09765625" style="8"/>
+    <col min="1799" max="1799" width="8.69921875" customWidth="true" style="8"/>
+    <col min="1800" max="1800" width="22" customWidth="true" style="8"/>
+    <col min="1801" max="1801" width="5.5" customWidth="true" style="8"/>
     <col min="1802" max="1802" width="8.09765625" style="8"/>
     <col min="1803" max="1803" width="8.09765625" style="8"/>
     <col min="1804" max="1804" width="8.09765625" style="8"/>
@@ -2843,16 +2987,16 @@
     <col min="2045" max="2045" width="8.09765625" style="8"/>
     <col min="2046" max="2046" width="8.09765625" style="8"/>
     <col min="2047" max="2047" width="8.09765625" style="8"/>
-    <col min="2048" max="2048" width="6.3984375" customWidth="true" style="8"/>
-    <col min="2049" max="2049" width="4.5" customWidth="true" style="8"/>
-    <col min="2050" max="2050" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2048" max="2048" width="8.09765625" style="8"/>
+    <col min="2049" max="2049" width="6.3984375" customWidth="true" style="8"/>
+    <col min="2050" max="2050" width="4.5" customWidth="true" style="8"/>
     <col min="2051" max="2051" width="8.69921875" customWidth="true" style="8"/>
     <col min="2052" max="2052" width="8.69921875" customWidth="true" style="8"/>
     <col min="2053" max="2053" width="8.69921875" customWidth="true" style="8"/>
     <col min="2054" max="2054" width="8.69921875" customWidth="true" style="8"/>
-    <col min="2055" max="2055" width="22" customWidth="true" style="8"/>
-    <col min="2056" max="2056" width="5.5" customWidth="true" style="8"/>
-    <col min="2057" max="2057" width="8.09765625" style="8"/>
+    <col min="2055" max="2055" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2056" max="2056" width="22" customWidth="true" style="8"/>
+    <col min="2057" max="2057" width="5.5" customWidth="true" style="8"/>
     <col min="2058" max="2058" width="8.09765625" style="8"/>
     <col min="2059" max="2059" width="8.09765625" style="8"/>
     <col min="2060" max="2060" width="8.09765625" style="8"/>
@@ -3099,16 +3243,16 @@
     <col min="2301" max="2301" width="8.09765625" style="8"/>
     <col min="2302" max="2302" width="8.09765625" style="8"/>
     <col min="2303" max="2303" width="8.09765625" style="8"/>
-    <col min="2304" max="2304" width="6.3984375" customWidth="true" style="8"/>
-    <col min="2305" max="2305" width="4.5" customWidth="true" style="8"/>
-    <col min="2306" max="2306" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2304" max="2304" width="8.09765625" style="8"/>
+    <col min="2305" max="2305" width="6.3984375" customWidth="true" style="8"/>
+    <col min="2306" max="2306" width="4.5" customWidth="true" style="8"/>
     <col min="2307" max="2307" width="8.69921875" customWidth="true" style="8"/>
     <col min="2308" max="2308" width="8.69921875" customWidth="true" style="8"/>
     <col min="2309" max="2309" width="8.69921875" customWidth="true" style="8"/>
     <col min="2310" max="2310" width="8.69921875" customWidth="true" style="8"/>
-    <col min="2311" max="2311" width="22" customWidth="true" style="8"/>
-    <col min="2312" max="2312" width="5.5" customWidth="true" style="8"/>
-    <col min="2313" max="2313" width="8.09765625" style="8"/>
+    <col min="2311" max="2311" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2312" max="2312" width="22" customWidth="true" style="8"/>
+    <col min="2313" max="2313" width="5.5" customWidth="true" style="8"/>
     <col min="2314" max="2314" width="8.09765625" style="8"/>
     <col min="2315" max="2315" width="8.09765625" style="8"/>
     <col min="2316" max="2316" width="8.09765625" style="8"/>
@@ -3355,16 +3499,16 @@
     <col min="2557" max="2557" width="8.09765625" style="8"/>
     <col min="2558" max="2558" width="8.09765625" style="8"/>
     <col min="2559" max="2559" width="8.09765625" style="8"/>
-    <col min="2560" max="2560" width="6.3984375" customWidth="true" style="8"/>
-    <col min="2561" max="2561" width="4.5" customWidth="true" style="8"/>
-    <col min="2562" max="2562" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2560" max="2560" width="8.09765625" style="8"/>
+    <col min="2561" max="2561" width="6.3984375" customWidth="true" style="8"/>
+    <col min="2562" max="2562" width="4.5" customWidth="true" style="8"/>
     <col min="2563" max="2563" width="8.69921875" customWidth="true" style="8"/>
     <col min="2564" max="2564" width="8.69921875" customWidth="true" style="8"/>
     <col min="2565" max="2565" width="8.69921875" customWidth="true" style="8"/>
     <col min="2566" max="2566" width="8.69921875" customWidth="true" style="8"/>
-    <col min="2567" max="2567" width="22" customWidth="true" style="8"/>
-    <col min="2568" max="2568" width="5.5" customWidth="true" style="8"/>
-    <col min="2569" max="2569" width="8.09765625" style="8"/>
+    <col min="2567" max="2567" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2568" max="2568" width="22" customWidth="true" style="8"/>
+    <col min="2569" max="2569" width="5.5" customWidth="true" style="8"/>
     <col min="2570" max="2570" width="8.09765625" style="8"/>
     <col min="2571" max="2571" width="8.09765625" style="8"/>
     <col min="2572" max="2572" width="8.09765625" style="8"/>
@@ -3611,16 +3755,16 @@
     <col min="2813" max="2813" width="8.09765625" style="8"/>
     <col min="2814" max="2814" width="8.09765625" style="8"/>
     <col min="2815" max="2815" width="8.09765625" style="8"/>
-    <col min="2816" max="2816" width="6.3984375" customWidth="true" style="8"/>
-    <col min="2817" max="2817" width="4.5" customWidth="true" style="8"/>
-    <col min="2818" max="2818" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2816" max="2816" width="8.09765625" style="8"/>
+    <col min="2817" max="2817" width="6.3984375" customWidth="true" style="8"/>
+    <col min="2818" max="2818" width="4.5" customWidth="true" style="8"/>
     <col min="2819" max="2819" width="8.69921875" customWidth="true" style="8"/>
     <col min="2820" max="2820" width="8.69921875" customWidth="true" style="8"/>
     <col min="2821" max="2821" width="8.69921875" customWidth="true" style="8"/>
     <col min="2822" max="2822" width="8.69921875" customWidth="true" style="8"/>
-    <col min="2823" max="2823" width="22" customWidth="true" style="8"/>
-    <col min="2824" max="2824" width="5.5" customWidth="true" style="8"/>
-    <col min="2825" max="2825" width="8.09765625" style="8"/>
+    <col min="2823" max="2823" width="8.69921875" customWidth="true" style="8"/>
+    <col min="2824" max="2824" width="22" customWidth="true" style="8"/>
+    <col min="2825" max="2825" width="5.5" customWidth="true" style="8"/>
     <col min="2826" max="2826" width="8.09765625" style="8"/>
     <col min="2827" max="2827" width="8.09765625" style="8"/>
     <col min="2828" max="2828" width="8.09765625" style="8"/>
@@ -3867,16 +4011,16 @@
     <col min="3069" max="3069" width="8.09765625" style="8"/>
     <col min="3070" max="3070" width="8.09765625" style="8"/>
     <col min="3071" max="3071" width="8.09765625" style="8"/>
-    <col min="3072" max="3072" width="6.3984375" customWidth="true" style="8"/>
-    <col min="3073" max="3073" width="4.5" customWidth="true" style="8"/>
-    <col min="3074" max="3074" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3072" max="3072" width="8.09765625" style="8"/>
+    <col min="3073" max="3073" width="6.3984375" customWidth="true" style="8"/>
+    <col min="3074" max="3074" width="4.5" customWidth="true" style="8"/>
     <col min="3075" max="3075" width="8.69921875" customWidth="true" style="8"/>
     <col min="3076" max="3076" width="8.69921875" customWidth="true" style="8"/>
     <col min="3077" max="3077" width="8.69921875" customWidth="true" style="8"/>
     <col min="3078" max="3078" width="8.69921875" customWidth="true" style="8"/>
-    <col min="3079" max="3079" width="22" customWidth="true" style="8"/>
-    <col min="3080" max="3080" width="5.5" customWidth="true" style="8"/>
-    <col min="3081" max="3081" width="8.09765625" style="8"/>
+    <col min="3079" max="3079" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3080" max="3080" width="22" customWidth="true" style="8"/>
+    <col min="3081" max="3081" width="5.5" customWidth="true" style="8"/>
     <col min="3082" max="3082" width="8.09765625" style="8"/>
     <col min="3083" max="3083" width="8.09765625" style="8"/>
     <col min="3084" max="3084" width="8.09765625" style="8"/>
@@ -4123,16 +4267,16 @@
     <col min="3325" max="3325" width="8.09765625" style="8"/>
     <col min="3326" max="3326" width="8.09765625" style="8"/>
     <col min="3327" max="3327" width="8.09765625" style="8"/>
-    <col min="3328" max="3328" width="6.3984375" customWidth="true" style="8"/>
-    <col min="3329" max="3329" width="4.5" customWidth="true" style="8"/>
-    <col min="3330" max="3330" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3328" max="3328" width="8.09765625" style="8"/>
+    <col min="3329" max="3329" width="6.3984375" customWidth="true" style="8"/>
+    <col min="3330" max="3330" width="4.5" customWidth="true" style="8"/>
     <col min="3331" max="3331" width="8.69921875" customWidth="true" style="8"/>
     <col min="3332" max="3332" width="8.69921875" customWidth="true" style="8"/>
     <col min="3333" max="3333" width="8.69921875" customWidth="true" style="8"/>
     <col min="3334" max="3334" width="8.69921875" customWidth="true" style="8"/>
-    <col min="3335" max="3335" width="22" customWidth="true" style="8"/>
-    <col min="3336" max="3336" width="5.5" customWidth="true" style="8"/>
-    <col min="3337" max="3337" width="8.09765625" style="8"/>
+    <col min="3335" max="3335" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3336" max="3336" width="22" customWidth="true" style="8"/>
+    <col min="3337" max="3337" width="5.5" customWidth="true" style="8"/>
     <col min="3338" max="3338" width="8.09765625" style="8"/>
     <col min="3339" max="3339" width="8.09765625" style="8"/>
     <col min="3340" max="3340" width="8.09765625" style="8"/>
@@ -4379,16 +4523,16 @@
     <col min="3581" max="3581" width="8.09765625" style="8"/>
     <col min="3582" max="3582" width="8.09765625" style="8"/>
     <col min="3583" max="3583" width="8.09765625" style="8"/>
-    <col min="3584" max="3584" width="6.3984375" customWidth="true" style="8"/>
-    <col min="3585" max="3585" width="4.5" customWidth="true" style="8"/>
-    <col min="3586" max="3586" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3584" max="3584" width="8.09765625" style="8"/>
+    <col min="3585" max="3585" width="6.3984375" customWidth="true" style="8"/>
+    <col min="3586" max="3586" width="4.5" customWidth="true" style="8"/>
     <col min="3587" max="3587" width="8.69921875" customWidth="true" style="8"/>
     <col min="3588" max="3588" width="8.69921875" customWidth="true" style="8"/>
     <col min="3589" max="3589" width="8.69921875" customWidth="true" style="8"/>
     <col min="3590" max="3590" width="8.69921875" customWidth="true" style="8"/>
-    <col min="3591" max="3591" width="22" customWidth="true" style="8"/>
-    <col min="3592" max="3592" width="5.5" customWidth="true" style="8"/>
-    <col min="3593" max="3593" width="8.09765625" style="8"/>
+    <col min="3591" max="3591" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3592" max="3592" width="22" customWidth="true" style="8"/>
+    <col min="3593" max="3593" width="5.5" customWidth="true" style="8"/>
     <col min="3594" max="3594" width="8.09765625" style="8"/>
     <col min="3595" max="3595" width="8.09765625" style="8"/>
     <col min="3596" max="3596" width="8.09765625" style="8"/>
@@ -4635,16 +4779,16 @@
     <col min="3837" max="3837" width="8.09765625" style="8"/>
     <col min="3838" max="3838" width="8.09765625" style="8"/>
     <col min="3839" max="3839" width="8.09765625" style="8"/>
-    <col min="3840" max="3840" width="6.3984375" customWidth="true" style="8"/>
-    <col min="3841" max="3841" width="4.5" customWidth="true" style="8"/>
-    <col min="3842" max="3842" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3840" max="3840" width="8.09765625" style="8"/>
+    <col min="3841" max="3841" width="6.3984375" customWidth="true" style="8"/>
+    <col min="3842" max="3842" width="4.5" customWidth="true" style="8"/>
     <col min="3843" max="3843" width="8.69921875" customWidth="true" style="8"/>
     <col min="3844" max="3844" width="8.69921875" customWidth="true" style="8"/>
     <col min="3845" max="3845" width="8.69921875" customWidth="true" style="8"/>
     <col min="3846" max="3846" width="8.69921875" customWidth="true" style="8"/>
-    <col min="3847" max="3847" width="22" customWidth="true" style="8"/>
-    <col min="3848" max="3848" width="5.5" customWidth="true" style="8"/>
-    <col min="3849" max="3849" width="8.09765625" style="8"/>
+    <col min="3847" max="3847" width="8.69921875" customWidth="true" style="8"/>
+    <col min="3848" max="3848" width="22" customWidth="true" style="8"/>
+    <col min="3849" max="3849" width="5.5" customWidth="true" style="8"/>
     <col min="3850" max="3850" width="8.09765625" style="8"/>
     <col min="3851" max="3851" width="8.09765625" style="8"/>
     <col min="3852" max="3852" width="8.09765625" style="8"/>
@@ -4891,16 +5035,16 @@
     <col min="4093" max="4093" width="8.09765625" style="8"/>
     <col min="4094" max="4094" width="8.09765625" style="8"/>
     <col min="4095" max="4095" width="8.09765625" style="8"/>
-    <col min="4096" max="4096" width="6.3984375" customWidth="true" style="8"/>
-    <col min="4097" max="4097" width="4.5" customWidth="true" style="8"/>
-    <col min="4098" max="4098" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4096" max="4096" width="8.09765625" style="8"/>
+    <col min="4097" max="4097" width="6.3984375" customWidth="true" style="8"/>
+    <col min="4098" max="4098" width="4.5" customWidth="true" style="8"/>
     <col min="4099" max="4099" width="8.69921875" customWidth="true" style="8"/>
     <col min="4100" max="4100" width="8.69921875" customWidth="true" style="8"/>
     <col min="4101" max="4101" width="8.69921875" customWidth="true" style="8"/>
     <col min="4102" max="4102" width="8.69921875" customWidth="true" style="8"/>
-    <col min="4103" max="4103" width="22" customWidth="true" style="8"/>
-    <col min="4104" max="4104" width="5.5" customWidth="true" style="8"/>
-    <col min="4105" max="4105" width="8.09765625" style="8"/>
+    <col min="4103" max="4103" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4104" max="4104" width="22" customWidth="true" style="8"/>
+    <col min="4105" max="4105" width="5.5" customWidth="true" style="8"/>
     <col min="4106" max="4106" width="8.09765625" style="8"/>
     <col min="4107" max="4107" width="8.09765625" style="8"/>
     <col min="4108" max="4108" width="8.09765625" style="8"/>
@@ -5147,16 +5291,16 @@
     <col min="4349" max="4349" width="8.09765625" style="8"/>
     <col min="4350" max="4350" width="8.09765625" style="8"/>
     <col min="4351" max="4351" width="8.09765625" style="8"/>
-    <col min="4352" max="4352" width="6.3984375" customWidth="true" style="8"/>
-    <col min="4353" max="4353" width="4.5" customWidth="true" style="8"/>
-    <col min="4354" max="4354" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4352" max="4352" width="8.09765625" style="8"/>
+    <col min="4353" max="4353" width="6.3984375" customWidth="true" style="8"/>
+    <col min="4354" max="4354" width="4.5" customWidth="true" style="8"/>
     <col min="4355" max="4355" width="8.69921875" customWidth="true" style="8"/>
     <col min="4356" max="4356" width="8.69921875" customWidth="true" style="8"/>
     <col min="4357" max="4357" width="8.69921875" customWidth="true" style="8"/>
     <col min="4358" max="4358" width="8.69921875" customWidth="true" style="8"/>
-    <col min="4359" max="4359" width="22" customWidth="true" style="8"/>
-    <col min="4360" max="4360" width="5.5" customWidth="true" style="8"/>
-    <col min="4361" max="4361" width="8.09765625" style="8"/>
+    <col min="4359" max="4359" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4360" max="4360" width="22" customWidth="true" style="8"/>
+    <col min="4361" max="4361" width="5.5" customWidth="true" style="8"/>
     <col min="4362" max="4362" width="8.09765625" style="8"/>
     <col min="4363" max="4363" width="8.09765625" style="8"/>
     <col min="4364" max="4364" width="8.09765625" style="8"/>
@@ -5403,16 +5547,16 @@
     <col min="4605" max="4605" width="8.09765625" style="8"/>
     <col min="4606" max="4606" width="8.09765625" style="8"/>
     <col min="4607" max="4607" width="8.09765625" style="8"/>
-    <col min="4608" max="4608" width="6.3984375" customWidth="true" style="8"/>
-    <col min="4609" max="4609" width="4.5" customWidth="true" style="8"/>
-    <col min="4610" max="4610" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4608" max="4608" width="8.09765625" style="8"/>
+    <col min="4609" max="4609" width="6.3984375" customWidth="true" style="8"/>
+    <col min="4610" max="4610" width="4.5" customWidth="true" style="8"/>
     <col min="4611" max="4611" width="8.69921875" customWidth="true" style="8"/>
     <col min="4612" max="4612" width="8.69921875" customWidth="true" style="8"/>
     <col min="4613" max="4613" width="8.69921875" customWidth="true" style="8"/>
     <col min="4614" max="4614" width="8.69921875" customWidth="true" style="8"/>
-    <col min="4615" max="4615" width="22" customWidth="true" style="8"/>
-    <col min="4616" max="4616" width="5.5" customWidth="true" style="8"/>
-    <col min="4617" max="4617" width="8.09765625" style="8"/>
+    <col min="4615" max="4615" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4616" max="4616" width="22" customWidth="true" style="8"/>
+    <col min="4617" max="4617" width="5.5" customWidth="true" style="8"/>
     <col min="4618" max="4618" width="8.09765625" style="8"/>
     <col min="4619" max="4619" width="8.09765625" style="8"/>
     <col min="4620" max="4620" width="8.09765625" style="8"/>
@@ -5659,16 +5803,16 @@
     <col min="4861" max="4861" width="8.09765625" style="8"/>
     <col min="4862" max="4862" width="8.09765625" style="8"/>
     <col min="4863" max="4863" width="8.09765625" style="8"/>
-    <col min="4864" max="4864" width="6.3984375" customWidth="true" style="8"/>
-    <col min="4865" max="4865" width="4.5" customWidth="true" style="8"/>
-    <col min="4866" max="4866" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4864" max="4864" width="8.09765625" style="8"/>
+    <col min="4865" max="4865" width="6.3984375" customWidth="true" style="8"/>
+    <col min="4866" max="4866" width="4.5" customWidth="true" style="8"/>
     <col min="4867" max="4867" width="8.69921875" customWidth="true" style="8"/>
     <col min="4868" max="4868" width="8.69921875" customWidth="true" style="8"/>
     <col min="4869" max="4869" width="8.69921875" customWidth="true" style="8"/>
     <col min="4870" max="4870" width="8.69921875" customWidth="true" style="8"/>
-    <col min="4871" max="4871" width="22" customWidth="true" style="8"/>
-    <col min="4872" max="4872" width="5.5" customWidth="true" style="8"/>
-    <col min="4873" max="4873" width="8.09765625" style="8"/>
+    <col min="4871" max="4871" width="8.69921875" customWidth="true" style="8"/>
+    <col min="4872" max="4872" width="22" customWidth="true" style="8"/>
+    <col min="4873" max="4873" width="5.5" customWidth="true" style="8"/>
     <col min="4874" max="4874" width="8.09765625" style="8"/>
     <col min="4875" max="4875" width="8.09765625" style="8"/>
     <col min="4876" max="4876" width="8.09765625" style="8"/>
@@ -5915,16 +6059,16 @@
     <col min="5117" max="5117" width="8.09765625" style="8"/>
     <col min="5118" max="5118" width="8.09765625" style="8"/>
     <col min="5119" max="5119" width="8.09765625" style="8"/>
-    <col min="5120" max="5120" width="6.3984375" customWidth="true" style="8"/>
-    <col min="5121" max="5121" width="4.5" customWidth="true" style="8"/>
-    <col min="5122" max="5122" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5120" max="5120" width="8.09765625" style="8"/>
+    <col min="5121" max="5121" width="6.3984375" customWidth="true" style="8"/>
+    <col min="5122" max="5122" width="4.5" customWidth="true" style="8"/>
     <col min="5123" max="5123" width="8.69921875" customWidth="true" style="8"/>
     <col min="5124" max="5124" width="8.69921875" customWidth="true" style="8"/>
     <col min="5125" max="5125" width="8.69921875" customWidth="true" style="8"/>
     <col min="5126" max="5126" width="8.69921875" customWidth="true" style="8"/>
-    <col min="5127" max="5127" width="22" customWidth="true" style="8"/>
-    <col min="5128" max="5128" width="5.5" customWidth="true" style="8"/>
-    <col min="5129" max="5129" width="8.09765625" style="8"/>
+    <col min="5127" max="5127" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5128" max="5128" width="22" customWidth="true" style="8"/>
+    <col min="5129" max="5129" width="5.5" customWidth="true" style="8"/>
     <col min="5130" max="5130" width="8.09765625" style="8"/>
     <col min="5131" max="5131" width="8.09765625" style="8"/>
     <col min="5132" max="5132" width="8.09765625" style="8"/>
@@ -6171,16 +6315,16 @@
     <col min="5373" max="5373" width="8.09765625" style="8"/>
     <col min="5374" max="5374" width="8.09765625" style="8"/>
     <col min="5375" max="5375" width="8.09765625" style="8"/>
-    <col min="5376" max="5376" width="6.3984375" customWidth="true" style="8"/>
-    <col min="5377" max="5377" width="4.5" customWidth="true" style="8"/>
-    <col min="5378" max="5378" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5376" max="5376" width="8.09765625" style="8"/>
+    <col min="5377" max="5377" width="6.3984375" customWidth="true" style="8"/>
+    <col min="5378" max="5378" width="4.5" customWidth="true" style="8"/>
     <col min="5379" max="5379" width="8.69921875" customWidth="true" style="8"/>
     <col min="5380" max="5380" width="8.69921875" customWidth="true" style="8"/>
     <col min="5381" max="5381" width="8.69921875" customWidth="true" style="8"/>
     <col min="5382" max="5382" width="8.69921875" customWidth="true" style="8"/>
-    <col min="5383" max="5383" width="22" customWidth="true" style="8"/>
-    <col min="5384" max="5384" width="5.5" customWidth="true" style="8"/>
-    <col min="5385" max="5385" width="8.09765625" style="8"/>
+    <col min="5383" max="5383" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5384" max="5384" width="22" customWidth="true" style="8"/>
+    <col min="5385" max="5385" width="5.5" customWidth="true" style="8"/>
     <col min="5386" max="5386" width="8.09765625" style="8"/>
     <col min="5387" max="5387" width="8.09765625" style="8"/>
     <col min="5388" max="5388" width="8.09765625" style="8"/>
@@ -6427,16 +6571,16 @@
     <col min="5629" max="5629" width="8.09765625" style="8"/>
     <col min="5630" max="5630" width="8.09765625" style="8"/>
     <col min="5631" max="5631" width="8.09765625" style="8"/>
-    <col min="5632" max="5632" width="6.3984375" customWidth="true" style="8"/>
-    <col min="5633" max="5633" width="4.5" customWidth="true" style="8"/>
-    <col min="5634" max="5634" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5632" max="5632" width="8.09765625" style="8"/>
+    <col min="5633" max="5633" width="6.3984375" customWidth="true" style="8"/>
+    <col min="5634" max="5634" width="4.5" customWidth="true" style="8"/>
     <col min="5635" max="5635" width="8.69921875" customWidth="true" style="8"/>
     <col min="5636" max="5636" width="8.69921875" customWidth="true" style="8"/>
     <col min="5637" max="5637" width="8.69921875" customWidth="true" style="8"/>
     <col min="5638" max="5638" width="8.69921875" customWidth="true" style="8"/>
-    <col min="5639" max="5639" width="22" customWidth="true" style="8"/>
-    <col min="5640" max="5640" width="5.5" customWidth="true" style="8"/>
-    <col min="5641" max="5641" width="8.09765625" style="8"/>
+    <col min="5639" max="5639" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5640" max="5640" width="22" customWidth="true" style="8"/>
+    <col min="5641" max="5641" width="5.5" customWidth="true" style="8"/>
     <col min="5642" max="5642" width="8.09765625" style="8"/>
     <col min="5643" max="5643" width="8.09765625" style="8"/>
     <col min="5644" max="5644" width="8.09765625" style="8"/>
@@ -6683,16 +6827,16 @@
     <col min="5885" max="5885" width="8.09765625" style="8"/>
     <col min="5886" max="5886" width="8.09765625" style="8"/>
     <col min="5887" max="5887" width="8.09765625" style="8"/>
-    <col min="5888" max="5888" width="6.3984375" customWidth="true" style="8"/>
-    <col min="5889" max="5889" width="4.5" customWidth="true" style="8"/>
-    <col min="5890" max="5890" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5888" max="5888" width="8.09765625" style="8"/>
+    <col min="5889" max="5889" width="6.3984375" customWidth="true" style="8"/>
+    <col min="5890" max="5890" width="4.5" customWidth="true" style="8"/>
     <col min="5891" max="5891" width="8.69921875" customWidth="true" style="8"/>
     <col min="5892" max="5892" width="8.69921875" customWidth="true" style="8"/>
     <col min="5893" max="5893" width="8.69921875" customWidth="true" style="8"/>
     <col min="5894" max="5894" width="8.69921875" customWidth="true" style="8"/>
-    <col min="5895" max="5895" width="22" customWidth="true" style="8"/>
-    <col min="5896" max="5896" width="5.5" customWidth="true" style="8"/>
-    <col min="5897" max="5897" width="8.09765625" style="8"/>
+    <col min="5895" max="5895" width="8.69921875" customWidth="true" style="8"/>
+    <col min="5896" max="5896" width="22" customWidth="true" style="8"/>
+    <col min="5897" max="5897" width="5.5" customWidth="true" style="8"/>
     <col min="5898" max="5898" width="8.09765625" style="8"/>
     <col min="5899" max="5899" width="8.09765625" style="8"/>
     <col min="5900" max="5900" width="8.09765625" style="8"/>
@@ -6939,16 +7083,16 @@
     <col min="6141" max="6141" width="8.09765625" style="8"/>
     <col min="6142" max="6142" width="8.09765625" style="8"/>
     <col min="6143" max="6143" width="8.09765625" style="8"/>
-    <col min="6144" max="6144" width="6.3984375" customWidth="true" style="8"/>
-    <col min="6145" max="6145" width="4.5" customWidth="true" style="8"/>
-    <col min="6146" max="6146" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6144" max="6144" width="8.09765625" style="8"/>
+    <col min="6145" max="6145" width="6.3984375" customWidth="true" style="8"/>
+    <col min="6146" max="6146" width="4.5" customWidth="true" style="8"/>
     <col min="6147" max="6147" width="8.69921875" customWidth="true" style="8"/>
     <col min="6148" max="6148" width="8.69921875" customWidth="true" style="8"/>
     <col min="6149" max="6149" width="8.69921875" customWidth="true" style="8"/>
     <col min="6150" max="6150" width="8.69921875" customWidth="true" style="8"/>
-    <col min="6151" max="6151" width="22" customWidth="true" style="8"/>
-    <col min="6152" max="6152" width="5.5" customWidth="true" style="8"/>
-    <col min="6153" max="6153" width="8.09765625" style="8"/>
+    <col min="6151" max="6151" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6152" max="6152" width="22" customWidth="true" style="8"/>
+    <col min="6153" max="6153" width="5.5" customWidth="true" style="8"/>
     <col min="6154" max="6154" width="8.09765625" style="8"/>
     <col min="6155" max="6155" width="8.09765625" style="8"/>
     <col min="6156" max="6156" width="8.09765625" style="8"/>
@@ -7195,16 +7339,16 @@
     <col min="6397" max="6397" width="8.09765625" style="8"/>
     <col min="6398" max="6398" width="8.09765625" style="8"/>
     <col min="6399" max="6399" width="8.09765625" style="8"/>
-    <col min="6400" max="6400" width="6.3984375" customWidth="true" style="8"/>
-    <col min="6401" max="6401" width="4.5" customWidth="true" style="8"/>
-    <col min="6402" max="6402" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6400" max="6400" width="8.09765625" style="8"/>
+    <col min="6401" max="6401" width="6.3984375" customWidth="true" style="8"/>
+    <col min="6402" max="6402" width="4.5" customWidth="true" style="8"/>
     <col min="6403" max="6403" width="8.69921875" customWidth="true" style="8"/>
     <col min="6404" max="6404" width="8.69921875" customWidth="true" style="8"/>
     <col min="6405" max="6405" width="8.69921875" customWidth="true" style="8"/>
     <col min="6406" max="6406" width="8.69921875" customWidth="true" style="8"/>
-    <col min="6407" max="6407" width="22" customWidth="true" style="8"/>
-    <col min="6408" max="6408" width="5.5" customWidth="true" style="8"/>
-    <col min="6409" max="6409" width="8.09765625" style="8"/>
+    <col min="6407" max="6407" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6408" max="6408" width="22" customWidth="true" style="8"/>
+    <col min="6409" max="6409" width="5.5" customWidth="true" style="8"/>
     <col min="6410" max="6410" width="8.09765625" style="8"/>
     <col min="6411" max="6411" width="8.09765625" style="8"/>
     <col min="6412" max="6412" width="8.09765625" style="8"/>
@@ -7451,16 +7595,16 @@
     <col min="6653" max="6653" width="8.09765625" style="8"/>
     <col min="6654" max="6654" width="8.09765625" style="8"/>
     <col min="6655" max="6655" width="8.09765625" style="8"/>
-    <col min="6656" max="6656" width="6.3984375" customWidth="true" style="8"/>
-    <col min="6657" max="6657" width="4.5" customWidth="true" style="8"/>
-    <col min="6658" max="6658" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6656" max="6656" width="8.09765625" style="8"/>
+    <col min="6657" max="6657" width="6.3984375" customWidth="true" style="8"/>
+    <col min="6658" max="6658" width="4.5" customWidth="true" style="8"/>
     <col min="6659" max="6659" width="8.69921875" customWidth="true" style="8"/>
     <col min="6660" max="6660" width="8.69921875" customWidth="true" style="8"/>
     <col min="6661" max="6661" width="8.69921875" customWidth="true" style="8"/>
     <col min="6662" max="6662" width="8.69921875" customWidth="true" style="8"/>
-    <col min="6663" max="6663" width="22" customWidth="true" style="8"/>
-    <col min="6664" max="6664" width="5.5" customWidth="true" style="8"/>
-    <col min="6665" max="6665" width="8.09765625" style="8"/>
+    <col min="6663" max="6663" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6664" max="6664" width="22" customWidth="true" style="8"/>
+    <col min="6665" max="6665" width="5.5" customWidth="true" style="8"/>
     <col min="6666" max="6666" width="8.09765625" style="8"/>
     <col min="6667" max="6667" width="8.09765625" style="8"/>
     <col min="6668" max="6668" width="8.09765625" style="8"/>
@@ -7707,16 +7851,16 @@
     <col min="6909" max="6909" width="8.09765625" style="8"/>
     <col min="6910" max="6910" width="8.09765625" style="8"/>
     <col min="6911" max="6911" width="8.09765625" style="8"/>
-    <col min="6912" max="6912" width="6.3984375" customWidth="true" style="8"/>
-    <col min="6913" max="6913" width="4.5" customWidth="true" style="8"/>
-    <col min="6914" max="6914" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6912" max="6912" width="8.09765625" style="8"/>
+    <col min="6913" max="6913" width="6.3984375" customWidth="true" style="8"/>
+    <col min="6914" max="6914" width="4.5" customWidth="true" style="8"/>
     <col min="6915" max="6915" width="8.69921875" customWidth="true" style="8"/>
     <col min="6916" max="6916" width="8.69921875" customWidth="true" style="8"/>
     <col min="6917" max="6917" width="8.69921875" customWidth="true" style="8"/>
     <col min="6918" max="6918" width="8.69921875" customWidth="true" style="8"/>
-    <col min="6919" max="6919" width="22" customWidth="true" style="8"/>
-    <col min="6920" max="6920" width="5.5" customWidth="true" style="8"/>
-    <col min="6921" max="6921" width="8.09765625" style="8"/>
+    <col min="6919" max="6919" width="8.69921875" customWidth="true" style="8"/>
+    <col min="6920" max="6920" width="22" customWidth="true" style="8"/>
+    <col min="6921" max="6921" width="5.5" customWidth="true" style="8"/>
     <col min="6922" max="6922" width="8.09765625" style="8"/>
     <col min="6923" max="6923" width="8.09765625" style="8"/>
     <col min="6924" max="6924" width="8.09765625" style="8"/>
@@ -7963,16 +8107,16 @@
     <col min="7165" max="7165" width="8.09765625" style="8"/>
     <col min="7166" max="7166" width="8.09765625" style="8"/>
     <col min="7167" max="7167" width="8.09765625" style="8"/>
-    <col min="7168" max="7168" width="6.3984375" customWidth="true" style="8"/>
-    <col min="7169" max="7169" width="4.5" customWidth="true" style="8"/>
-    <col min="7170" max="7170" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7168" max="7168" width="8.09765625" style="8"/>
+    <col min="7169" max="7169" width="6.3984375" customWidth="true" style="8"/>
+    <col min="7170" max="7170" width="4.5" customWidth="true" style="8"/>
     <col min="7171" max="7171" width="8.69921875" customWidth="true" style="8"/>
     <col min="7172" max="7172" width="8.69921875" customWidth="true" style="8"/>
     <col min="7173" max="7173" width="8.69921875" customWidth="true" style="8"/>
     <col min="7174" max="7174" width="8.69921875" customWidth="true" style="8"/>
-    <col min="7175" max="7175" width="22" customWidth="true" style="8"/>
-    <col min="7176" max="7176" width="5.5" customWidth="true" style="8"/>
-    <col min="7177" max="7177" width="8.09765625" style="8"/>
+    <col min="7175" max="7175" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7176" max="7176" width="22" customWidth="true" style="8"/>
+    <col min="7177" max="7177" width="5.5" customWidth="true" style="8"/>
     <col min="7178" max="7178" width="8.09765625" style="8"/>
     <col min="7179" max="7179" width="8.09765625" style="8"/>
     <col min="7180" max="7180" width="8.09765625" style="8"/>
@@ -8219,16 +8363,16 @@
     <col min="7421" max="7421" width="8.09765625" style="8"/>
     <col min="7422" max="7422" width="8.09765625" style="8"/>
     <col min="7423" max="7423" width="8.09765625" style="8"/>
-    <col min="7424" max="7424" width="6.3984375" customWidth="true" style="8"/>
-    <col min="7425" max="7425" width="4.5" customWidth="true" style="8"/>
-    <col min="7426" max="7426" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7424" max="7424" width="8.09765625" style="8"/>
+    <col min="7425" max="7425" width="6.3984375" customWidth="true" style="8"/>
+    <col min="7426" max="7426" width="4.5" customWidth="true" style="8"/>
     <col min="7427" max="7427" width="8.69921875" customWidth="true" style="8"/>
     <col min="7428" max="7428" width="8.69921875" customWidth="true" style="8"/>
     <col min="7429" max="7429" width="8.69921875" customWidth="true" style="8"/>
     <col min="7430" max="7430" width="8.69921875" customWidth="true" style="8"/>
-    <col min="7431" max="7431" width="22" customWidth="true" style="8"/>
-    <col min="7432" max="7432" width="5.5" customWidth="true" style="8"/>
-    <col min="7433" max="7433" width="8.09765625" style="8"/>
+    <col min="7431" max="7431" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7432" max="7432" width="22" customWidth="true" style="8"/>
+    <col min="7433" max="7433" width="5.5" customWidth="true" style="8"/>
     <col min="7434" max="7434" width="8.09765625" style="8"/>
     <col min="7435" max="7435" width="8.09765625" style="8"/>
     <col min="7436" max="7436" width="8.09765625" style="8"/>
@@ -8475,16 +8619,16 @@
     <col min="7677" max="7677" width="8.09765625" style="8"/>
     <col min="7678" max="7678" width="8.09765625" style="8"/>
     <col min="7679" max="7679" width="8.09765625" style="8"/>
-    <col min="7680" max="7680" width="6.3984375" customWidth="true" style="8"/>
-    <col min="7681" max="7681" width="4.5" customWidth="true" style="8"/>
-    <col min="7682" max="7682" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7680" max="7680" width="8.09765625" style="8"/>
+    <col min="7681" max="7681" width="6.3984375" customWidth="true" style="8"/>
+    <col min="7682" max="7682" width="4.5" customWidth="true" style="8"/>
     <col min="7683" max="7683" width="8.69921875" customWidth="true" style="8"/>
     <col min="7684" max="7684" width="8.69921875" customWidth="true" style="8"/>
     <col min="7685" max="7685" width="8.69921875" customWidth="true" style="8"/>
     <col min="7686" max="7686" width="8.69921875" customWidth="true" style="8"/>
-    <col min="7687" max="7687" width="22" customWidth="true" style="8"/>
-    <col min="7688" max="7688" width="5.5" customWidth="true" style="8"/>
-    <col min="7689" max="7689" width="8.09765625" style="8"/>
+    <col min="7687" max="7687" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7688" max="7688" width="22" customWidth="true" style="8"/>
+    <col min="7689" max="7689" width="5.5" customWidth="true" style="8"/>
     <col min="7690" max="7690" width="8.09765625" style="8"/>
     <col min="7691" max="7691" width="8.09765625" style="8"/>
     <col min="7692" max="7692" width="8.09765625" style="8"/>
@@ -8731,16 +8875,16 @@
     <col min="7933" max="7933" width="8.09765625" style="8"/>
     <col min="7934" max="7934" width="8.09765625" style="8"/>
     <col min="7935" max="7935" width="8.09765625" style="8"/>
-    <col min="7936" max="7936" width="6.3984375" customWidth="true" style="8"/>
-    <col min="7937" max="7937" width="4.5" customWidth="true" style="8"/>
-    <col min="7938" max="7938" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7936" max="7936" width="8.09765625" style="8"/>
+    <col min="7937" max="7937" width="6.3984375" customWidth="true" style="8"/>
+    <col min="7938" max="7938" width="4.5" customWidth="true" style="8"/>
     <col min="7939" max="7939" width="8.69921875" customWidth="true" style="8"/>
     <col min="7940" max="7940" width="8.69921875" customWidth="true" style="8"/>
     <col min="7941" max="7941" width="8.69921875" customWidth="true" style="8"/>
     <col min="7942" max="7942" width="8.69921875" customWidth="true" style="8"/>
-    <col min="7943" max="7943" width="22" customWidth="true" style="8"/>
-    <col min="7944" max="7944" width="5.5" customWidth="true" style="8"/>
-    <col min="7945" max="7945" width="8.09765625" style="8"/>
+    <col min="7943" max="7943" width="8.69921875" customWidth="true" style="8"/>
+    <col min="7944" max="7944" width="22" customWidth="true" style="8"/>
+    <col min="7945" max="7945" width="5.5" customWidth="true" style="8"/>
     <col min="7946" max="7946" width="8.09765625" style="8"/>
     <col min="7947" max="7947" width="8.09765625" style="8"/>
     <col min="7948" max="7948" width="8.09765625" style="8"/>
@@ -8987,16 +9131,16 @@
     <col min="8189" max="8189" width="8.09765625" style="8"/>
     <col min="8190" max="8190" width="8.09765625" style="8"/>
     <col min="8191" max="8191" width="8.09765625" style="8"/>
-    <col min="8192" max="8192" width="6.3984375" customWidth="true" style="8"/>
-    <col min="8193" max="8193" width="4.5" customWidth="true" style="8"/>
-    <col min="8194" max="8194" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8192" max="8192" width="8.09765625" style="8"/>
+    <col min="8193" max="8193" width="6.3984375" customWidth="true" style="8"/>
+    <col min="8194" max="8194" width="4.5" customWidth="true" style="8"/>
     <col min="8195" max="8195" width="8.69921875" customWidth="true" style="8"/>
     <col min="8196" max="8196" width="8.69921875" customWidth="true" style="8"/>
     <col min="8197" max="8197" width="8.69921875" customWidth="true" style="8"/>
     <col min="8198" max="8198" width="8.69921875" customWidth="true" style="8"/>
-    <col min="8199" max="8199" width="22" customWidth="true" style="8"/>
-    <col min="8200" max="8200" width="5.5" customWidth="true" style="8"/>
-    <col min="8201" max="8201" width="8.09765625" style="8"/>
+    <col min="8199" max="8199" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8200" max="8200" width="22" customWidth="true" style="8"/>
+    <col min="8201" max="8201" width="5.5" customWidth="true" style="8"/>
     <col min="8202" max="8202" width="8.09765625" style="8"/>
     <col min="8203" max="8203" width="8.09765625" style="8"/>
     <col min="8204" max="8204" width="8.09765625" style="8"/>
@@ -9243,16 +9387,16 @@
     <col min="8445" max="8445" width="8.09765625" style="8"/>
     <col min="8446" max="8446" width="8.09765625" style="8"/>
     <col min="8447" max="8447" width="8.09765625" style="8"/>
-    <col min="8448" max="8448" width="6.3984375" customWidth="true" style="8"/>
-    <col min="8449" max="8449" width="4.5" customWidth="true" style="8"/>
-    <col min="8450" max="8450" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8448" max="8448" width="8.09765625" style="8"/>
+    <col min="8449" max="8449" width="6.3984375" customWidth="true" style="8"/>
+    <col min="8450" max="8450" width="4.5" customWidth="true" style="8"/>
     <col min="8451" max="8451" width="8.69921875" customWidth="true" style="8"/>
     <col min="8452" max="8452" width="8.69921875" customWidth="true" style="8"/>
     <col min="8453" max="8453" width="8.69921875" customWidth="true" style="8"/>
     <col min="8454" max="8454" width="8.69921875" customWidth="true" style="8"/>
-    <col min="8455" max="8455" width="22" customWidth="true" style="8"/>
-    <col min="8456" max="8456" width="5.5" customWidth="true" style="8"/>
-    <col min="8457" max="8457" width="8.09765625" style="8"/>
+    <col min="8455" max="8455" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8456" max="8456" width="22" customWidth="true" style="8"/>
+    <col min="8457" max="8457" width="5.5" customWidth="true" style="8"/>
     <col min="8458" max="8458" width="8.09765625" style="8"/>
     <col min="8459" max="8459" width="8.09765625" style="8"/>
     <col min="8460" max="8460" width="8.09765625" style="8"/>
@@ -9499,16 +9643,16 @@
     <col min="8701" max="8701" width="8.09765625" style="8"/>
     <col min="8702" max="8702" width="8.09765625" style="8"/>
     <col min="8703" max="8703" width="8.09765625" style="8"/>
-    <col min="8704" max="8704" width="6.3984375" customWidth="true" style="8"/>
-    <col min="8705" max="8705" width="4.5" customWidth="true" style="8"/>
-    <col min="8706" max="8706" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8704" max="8704" width="8.09765625" style="8"/>
+    <col min="8705" max="8705" width="6.3984375" customWidth="true" style="8"/>
+    <col min="8706" max="8706" width="4.5" customWidth="true" style="8"/>
     <col min="8707" max="8707" width="8.69921875" customWidth="true" style="8"/>
     <col min="8708" max="8708" width="8.69921875" customWidth="true" style="8"/>
     <col min="8709" max="8709" width="8.69921875" customWidth="true" style="8"/>
     <col min="8710" max="8710" width="8.69921875" customWidth="true" style="8"/>
-    <col min="8711" max="8711" width="22" customWidth="true" style="8"/>
-    <col min="8712" max="8712" width="5.5" customWidth="true" style="8"/>
-    <col min="8713" max="8713" width="8.09765625" style="8"/>
+    <col min="8711" max="8711" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8712" max="8712" width="22" customWidth="true" style="8"/>
+    <col min="8713" max="8713" width="5.5" customWidth="true" style="8"/>
     <col min="8714" max="8714" width="8.09765625" style="8"/>
     <col min="8715" max="8715" width="8.09765625" style="8"/>
     <col min="8716" max="8716" width="8.09765625" style="8"/>
@@ -9755,16 +9899,16 @@
     <col min="8957" max="8957" width="8.09765625" style="8"/>
     <col min="8958" max="8958" width="8.09765625" style="8"/>
     <col min="8959" max="8959" width="8.09765625" style="8"/>
-    <col min="8960" max="8960" width="6.3984375" customWidth="true" style="8"/>
-    <col min="8961" max="8961" width="4.5" customWidth="true" style="8"/>
-    <col min="8962" max="8962" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8960" max="8960" width="8.09765625" style="8"/>
+    <col min="8961" max="8961" width="6.3984375" customWidth="true" style="8"/>
+    <col min="8962" max="8962" width="4.5" customWidth="true" style="8"/>
     <col min="8963" max="8963" width="8.69921875" customWidth="true" style="8"/>
     <col min="8964" max="8964" width="8.69921875" customWidth="true" style="8"/>
     <col min="8965" max="8965" width="8.69921875" customWidth="true" style="8"/>
     <col min="8966" max="8966" width="8.69921875" customWidth="true" style="8"/>
-    <col min="8967" max="8967" width="22" customWidth="true" style="8"/>
-    <col min="8968" max="8968" width="5.5" customWidth="true" style="8"/>
-    <col min="8969" max="8969" width="8.09765625" style="8"/>
+    <col min="8967" max="8967" width="8.69921875" customWidth="true" style="8"/>
+    <col min="8968" max="8968" width="22" customWidth="true" style="8"/>
+    <col min="8969" max="8969" width="5.5" customWidth="true" style="8"/>
     <col min="8970" max="8970" width="8.09765625" style="8"/>
     <col min="8971" max="8971" width="8.09765625" style="8"/>
     <col min="8972" max="8972" width="8.09765625" style="8"/>
@@ -10011,16 +10155,16 @@
     <col min="9213" max="9213" width="8.09765625" style="8"/>
     <col min="9214" max="9214" width="8.09765625" style="8"/>
     <col min="9215" max="9215" width="8.09765625" style="8"/>
-    <col min="9216" max="9216" width="6.3984375" customWidth="true" style="8"/>
-    <col min="9217" max="9217" width="4.5" customWidth="true" style="8"/>
-    <col min="9218" max="9218" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9216" max="9216" width="8.09765625" style="8"/>
+    <col min="9217" max="9217" width="6.3984375" customWidth="true" style="8"/>
+    <col min="9218" max="9218" width="4.5" customWidth="true" style="8"/>
     <col min="9219" max="9219" width="8.69921875" customWidth="true" style="8"/>
     <col min="9220" max="9220" width="8.69921875" customWidth="true" style="8"/>
     <col min="9221" max="9221" width="8.69921875" customWidth="true" style="8"/>
     <col min="9222" max="9222" width="8.69921875" customWidth="true" style="8"/>
-    <col min="9223" max="9223" width="22" customWidth="true" style="8"/>
-    <col min="9224" max="9224" width="5.5" customWidth="true" style="8"/>
-    <col min="9225" max="9225" width="8.09765625" style="8"/>
+    <col min="9223" max="9223" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9224" max="9224" width="22" customWidth="true" style="8"/>
+    <col min="9225" max="9225" width="5.5" customWidth="true" style="8"/>
     <col min="9226" max="9226" width="8.09765625" style="8"/>
     <col min="9227" max="9227" width="8.09765625" style="8"/>
     <col min="9228" max="9228" width="8.09765625" style="8"/>
@@ -10267,16 +10411,16 @@
     <col min="9469" max="9469" width="8.09765625" style="8"/>
     <col min="9470" max="9470" width="8.09765625" style="8"/>
     <col min="9471" max="9471" width="8.09765625" style="8"/>
-    <col min="9472" max="9472" width="6.3984375" customWidth="true" style="8"/>
-    <col min="9473" max="9473" width="4.5" customWidth="true" style="8"/>
-    <col min="9474" max="9474" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9472" max="9472" width="8.09765625" style="8"/>
+    <col min="9473" max="9473" width="6.3984375" customWidth="true" style="8"/>
+    <col min="9474" max="9474" width="4.5" customWidth="true" style="8"/>
     <col min="9475" max="9475" width="8.69921875" customWidth="true" style="8"/>
     <col min="9476" max="9476" width="8.69921875" customWidth="true" style="8"/>
     <col min="9477" max="9477" width="8.69921875" customWidth="true" style="8"/>
     <col min="9478" max="9478" width="8.69921875" customWidth="true" style="8"/>
-    <col min="9479" max="9479" width="22" customWidth="true" style="8"/>
-    <col min="9480" max="9480" width="5.5" customWidth="true" style="8"/>
-    <col min="9481" max="9481" width="8.09765625" style="8"/>
+    <col min="9479" max="9479" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9480" max="9480" width="22" customWidth="true" style="8"/>
+    <col min="9481" max="9481" width="5.5" customWidth="true" style="8"/>
     <col min="9482" max="9482" width="8.09765625" style="8"/>
     <col min="9483" max="9483" width="8.09765625" style="8"/>
     <col min="9484" max="9484" width="8.09765625" style="8"/>
@@ -10523,16 +10667,16 @@
     <col min="9725" max="9725" width="8.09765625" style="8"/>
     <col min="9726" max="9726" width="8.09765625" style="8"/>
     <col min="9727" max="9727" width="8.09765625" style="8"/>
-    <col min="9728" max="9728" width="6.3984375" customWidth="true" style="8"/>
-    <col min="9729" max="9729" width="4.5" customWidth="true" style="8"/>
-    <col min="9730" max="9730" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9728" max="9728" width="8.09765625" style="8"/>
+    <col min="9729" max="9729" width="6.3984375" customWidth="true" style="8"/>
+    <col min="9730" max="9730" width="4.5" customWidth="true" style="8"/>
     <col min="9731" max="9731" width="8.69921875" customWidth="true" style="8"/>
     <col min="9732" max="9732" width="8.69921875" customWidth="true" style="8"/>
     <col min="9733" max="9733" width="8.69921875" customWidth="true" style="8"/>
     <col min="9734" max="9734" width="8.69921875" customWidth="true" style="8"/>
-    <col min="9735" max="9735" width="22" customWidth="true" style="8"/>
-    <col min="9736" max="9736" width="5.5" customWidth="true" style="8"/>
-    <col min="9737" max="9737" width="8.09765625" style="8"/>
+    <col min="9735" max="9735" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9736" max="9736" width="22" customWidth="true" style="8"/>
+    <col min="9737" max="9737" width="5.5" customWidth="true" style="8"/>
     <col min="9738" max="9738" width="8.09765625" style="8"/>
     <col min="9739" max="9739" width="8.09765625" style="8"/>
     <col min="9740" max="9740" width="8.09765625" style="8"/>
@@ -10779,16 +10923,16 @@
     <col min="9981" max="9981" width="8.09765625" style="8"/>
     <col min="9982" max="9982" width="8.09765625" style="8"/>
     <col min="9983" max="9983" width="8.09765625" style="8"/>
-    <col min="9984" max="9984" width="6.3984375" customWidth="true" style="8"/>
-    <col min="9985" max="9985" width="4.5" customWidth="true" style="8"/>
-    <col min="9986" max="9986" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9984" max="9984" width="8.09765625" style="8"/>
+    <col min="9985" max="9985" width="6.3984375" customWidth="true" style="8"/>
+    <col min="9986" max="9986" width="4.5" customWidth="true" style="8"/>
     <col min="9987" max="9987" width="8.69921875" customWidth="true" style="8"/>
     <col min="9988" max="9988" width="8.69921875" customWidth="true" style="8"/>
     <col min="9989" max="9989" width="8.69921875" customWidth="true" style="8"/>
     <col min="9990" max="9990" width="8.69921875" customWidth="true" style="8"/>
-    <col min="9991" max="9991" width="22" customWidth="true" style="8"/>
-    <col min="9992" max="9992" width="5.5" customWidth="true" style="8"/>
-    <col min="9993" max="9993" width="8.09765625" style="8"/>
+    <col min="9991" max="9991" width="8.69921875" customWidth="true" style="8"/>
+    <col min="9992" max="9992" width="22" customWidth="true" style="8"/>
+    <col min="9993" max="9993" width="5.5" customWidth="true" style="8"/>
     <col min="9994" max="9994" width="8.09765625" style="8"/>
     <col min="9995" max="9995" width="8.09765625" style="8"/>
     <col min="9996" max="9996" width="8.09765625" style="8"/>
@@ -11035,16 +11179,16 @@
     <col min="10237" max="10237" width="8.09765625" style="8"/>
     <col min="10238" max="10238" width="8.09765625" style="8"/>
     <col min="10239" max="10239" width="8.09765625" style="8"/>
-    <col min="10240" max="10240" width="6.3984375" customWidth="true" style="8"/>
-    <col min="10241" max="10241" width="4.5" customWidth="true" style="8"/>
-    <col min="10242" max="10242" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10240" max="10240" width="8.09765625" style="8"/>
+    <col min="10241" max="10241" width="6.3984375" customWidth="true" style="8"/>
+    <col min="10242" max="10242" width="4.5" customWidth="true" style="8"/>
     <col min="10243" max="10243" width="8.69921875" customWidth="true" style="8"/>
     <col min="10244" max="10244" width="8.69921875" customWidth="true" style="8"/>
     <col min="10245" max="10245" width="8.69921875" customWidth="true" style="8"/>
     <col min="10246" max="10246" width="8.69921875" customWidth="true" style="8"/>
-    <col min="10247" max="10247" width="22" customWidth="true" style="8"/>
-    <col min="10248" max="10248" width="5.5" customWidth="true" style="8"/>
-    <col min="10249" max="10249" width="8.09765625" style="8"/>
+    <col min="10247" max="10247" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10248" max="10248" width="22" customWidth="true" style="8"/>
+    <col min="10249" max="10249" width="5.5" customWidth="true" style="8"/>
     <col min="10250" max="10250" width="8.09765625" style="8"/>
     <col min="10251" max="10251" width="8.09765625" style="8"/>
     <col min="10252" max="10252" width="8.09765625" style="8"/>
@@ -11291,16 +11435,16 @@
     <col min="10493" max="10493" width="8.09765625" style="8"/>
     <col min="10494" max="10494" width="8.09765625" style="8"/>
     <col min="10495" max="10495" width="8.09765625" style="8"/>
-    <col min="10496" max="10496" width="6.3984375" customWidth="true" style="8"/>
-    <col min="10497" max="10497" width="4.5" customWidth="true" style="8"/>
-    <col min="10498" max="10498" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10496" max="10496" width="8.09765625" style="8"/>
+    <col min="10497" max="10497" width="6.3984375" customWidth="true" style="8"/>
+    <col min="10498" max="10498" width="4.5" customWidth="true" style="8"/>
     <col min="10499" max="10499" width="8.69921875" customWidth="true" style="8"/>
     <col min="10500" max="10500" width="8.69921875" customWidth="true" style="8"/>
     <col min="10501" max="10501" width="8.69921875" customWidth="true" style="8"/>
     <col min="10502" max="10502" width="8.69921875" customWidth="true" style="8"/>
-    <col min="10503" max="10503" width="22" customWidth="true" style="8"/>
-    <col min="10504" max="10504" width="5.5" customWidth="true" style="8"/>
-    <col min="10505" max="10505" width="8.09765625" style="8"/>
+    <col min="10503" max="10503" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10504" max="10504" width="22" customWidth="true" style="8"/>
+    <col min="10505" max="10505" width="5.5" customWidth="true" style="8"/>
     <col min="10506" max="10506" width="8.09765625" style="8"/>
     <col min="10507" max="10507" width="8.09765625" style="8"/>
     <col min="10508" max="10508" width="8.09765625" style="8"/>
@@ -11547,16 +11691,16 @@
     <col min="10749" max="10749" width="8.09765625" style="8"/>
     <col min="10750" max="10750" width="8.09765625" style="8"/>
     <col min="10751" max="10751" width="8.09765625" style="8"/>
-    <col min="10752" max="10752" width="6.3984375" customWidth="true" style="8"/>
-    <col min="10753" max="10753" width="4.5" customWidth="true" style="8"/>
-    <col min="10754" max="10754" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10752" max="10752" width="8.09765625" style="8"/>
+    <col min="10753" max="10753" width="6.3984375" customWidth="true" style="8"/>
+    <col min="10754" max="10754" width="4.5" customWidth="true" style="8"/>
     <col min="10755" max="10755" width="8.69921875" customWidth="true" style="8"/>
     <col min="10756" max="10756" width="8.69921875" customWidth="true" style="8"/>
     <col min="10757" max="10757" width="8.69921875" customWidth="true" style="8"/>
     <col min="10758" max="10758" width="8.69921875" customWidth="true" style="8"/>
-    <col min="10759" max="10759" width="22" customWidth="true" style="8"/>
-    <col min="10760" max="10760" width="5.5" customWidth="true" style="8"/>
-    <col min="10761" max="10761" width="8.09765625" style="8"/>
+    <col min="10759" max="10759" width="8.69921875" customWidth="true" style="8"/>
+    <col min="10760" max="10760" width="22" customWidth="true" style="8"/>
+    <col min="10761" max="10761" width="5.5" customWidth="true" style="8"/>
     <col min="10762" max="10762" width="8.09765625" style="8"/>
     <col min="10763" max="10763" width="8.09765625" style="8"/>
     <col min="10764" max="10764" width="8.09765625" style="8"/>
@@ -11803,16 +11947,16 @@
     <col min="11005" max="11005" width="8.09765625" style="8"/>
     <col min="11006" max="11006" width="8.09765625" style="8"/>
     <col min="11007" max="11007" width="8.09765625" style="8"/>
-    <col min="11008" max="11008" width="6.3984375" customWidth="true" style="8"/>
-    <col min="11009" max="11009" width="4.5" customWidth="true" style="8"/>
-    <col min="11010" max="11010" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11008" max="11008" width="8.09765625" style="8"/>
+    <col min="11009" max="11009" width="6.3984375" customWidth="true" style="8"/>
+    <col min="11010" max="11010" width="4.5" customWidth="true" style="8"/>
     <col min="11011" max="11011" width="8.69921875" customWidth="true" style="8"/>
     <col min="11012" max="11012" width="8.69921875" customWidth="true" style="8"/>
     <col min="11013" max="11013" width="8.69921875" customWidth="true" style="8"/>
     <col min="11014" max="11014" width="8.69921875" customWidth="true" style="8"/>
-    <col min="11015" max="11015" width="22" customWidth="true" style="8"/>
-    <col min="11016" max="11016" width="5.5" customWidth="true" style="8"/>
-    <col min="11017" max="11017" width="8.09765625" style="8"/>
+    <col min="11015" max="11015" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11016" max="11016" width="22" customWidth="true" style="8"/>
+    <col min="11017" max="11017" width="5.5" customWidth="true" style="8"/>
     <col min="11018" max="11018" width="8.09765625" style="8"/>
     <col min="11019" max="11019" width="8.09765625" style="8"/>
     <col min="11020" max="11020" width="8.09765625" style="8"/>
@@ -12059,16 +12203,16 @@
     <col min="11261" max="11261" width="8.09765625" style="8"/>
     <col min="11262" max="11262" width="8.09765625" style="8"/>
     <col min="11263" max="11263" width="8.09765625" style="8"/>
-    <col min="11264" max="11264" width="6.3984375" customWidth="true" style="8"/>
-    <col min="11265" max="11265" width="4.5" customWidth="true" style="8"/>
-    <col min="11266" max="11266" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11264" max="11264" width="8.09765625" style="8"/>
+    <col min="11265" max="11265" width="6.3984375" customWidth="true" style="8"/>
+    <col min="11266" max="11266" width="4.5" customWidth="true" style="8"/>
     <col min="11267" max="11267" width="8.69921875" customWidth="true" style="8"/>
     <col min="11268" max="11268" width="8.69921875" customWidth="true" style="8"/>
     <col min="11269" max="11269" width="8.69921875" customWidth="true" style="8"/>
     <col min="11270" max="11270" width="8.69921875" customWidth="true" style="8"/>
-    <col min="11271" max="11271" width="22" customWidth="true" style="8"/>
-    <col min="11272" max="11272" width="5.5" customWidth="true" style="8"/>
-    <col min="11273" max="11273" width="8.09765625" style="8"/>
+    <col min="11271" max="11271" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11272" max="11272" width="22" customWidth="true" style="8"/>
+    <col min="11273" max="11273" width="5.5" customWidth="true" style="8"/>
     <col min="11274" max="11274" width="8.09765625" style="8"/>
     <col min="11275" max="11275" width="8.09765625" style="8"/>
     <col min="11276" max="11276" width="8.09765625" style="8"/>
@@ -12315,16 +12459,16 @@
     <col min="11517" max="11517" width="8.09765625" style="8"/>
     <col min="11518" max="11518" width="8.09765625" style="8"/>
     <col min="11519" max="11519" width="8.09765625" style="8"/>
-    <col min="11520" max="11520" width="6.3984375" customWidth="true" style="8"/>
-    <col min="11521" max="11521" width="4.5" customWidth="true" style="8"/>
-    <col min="11522" max="11522" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11520" max="11520" width="8.09765625" style="8"/>
+    <col min="11521" max="11521" width="6.3984375" customWidth="true" style="8"/>
+    <col min="11522" max="11522" width="4.5" customWidth="true" style="8"/>
     <col min="11523" max="11523" width="8.69921875" customWidth="true" style="8"/>
     <col min="11524" max="11524" width="8.69921875" customWidth="true" style="8"/>
     <col min="11525" max="11525" width="8.69921875" customWidth="true" style="8"/>
     <col min="11526" max="11526" width="8.69921875" customWidth="true" style="8"/>
-    <col min="11527" max="11527" width="22" customWidth="true" style="8"/>
-    <col min="11528" max="11528" width="5.5" customWidth="true" style="8"/>
-    <col min="11529" max="11529" width="8.09765625" style="8"/>
+    <col min="11527" max="11527" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11528" max="11528" width="22" customWidth="true" style="8"/>
+    <col min="11529" max="11529" width="5.5" customWidth="true" style="8"/>
     <col min="11530" max="11530" width="8.09765625" style="8"/>
     <col min="11531" max="11531" width="8.09765625" style="8"/>
     <col min="11532" max="11532" width="8.09765625" style="8"/>
@@ -12571,16 +12715,16 @@
     <col min="11773" max="11773" width="8.09765625" style="8"/>
     <col min="11774" max="11774" width="8.09765625" style="8"/>
     <col min="11775" max="11775" width="8.09765625" style="8"/>
-    <col min="11776" max="11776" width="6.3984375" customWidth="true" style="8"/>
-    <col min="11777" max="11777" width="4.5" customWidth="true" style="8"/>
-    <col min="11778" max="11778" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11776" max="11776" width="8.09765625" style="8"/>
+    <col min="11777" max="11777" width="6.3984375" customWidth="true" style="8"/>
+    <col min="11778" max="11778" width="4.5" customWidth="true" style="8"/>
     <col min="11779" max="11779" width="8.69921875" customWidth="true" style="8"/>
     <col min="11780" max="11780" width="8.69921875" customWidth="true" style="8"/>
     <col min="11781" max="11781" width="8.69921875" customWidth="true" style="8"/>
     <col min="11782" max="11782" width="8.69921875" customWidth="true" style="8"/>
-    <col min="11783" max="11783" width="22" customWidth="true" style="8"/>
-    <col min="11784" max="11784" width="5.5" customWidth="true" style="8"/>
-    <col min="11785" max="11785" width="8.09765625" style="8"/>
+    <col min="11783" max="11783" width="8.69921875" customWidth="true" style="8"/>
+    <col min="11784" max="11784" width="22" customWidth="true" style="8"/>
+    <col min="11785" max="11785" width="5.5" customWidth="true" style="8"/>
     <col min="11786" max="11786" width="8.09765625" style="8"/>
     <col min="11787" max="11787" width="8.09765625" style="8"/>
     <col min="11788" max="11788" width="8.09765625" style="8"/>
@@ -12827,16 +12971,16 @@
     <col min="12029" max="12029" width="8.09765625" style="8"/>
     <col min="12030" max="12030" width="8.09765625" style="8"/>
     <col min="12031" max="12031" width="8.09765625" style="8"/>
-    <col min="12032" max="12032" width="6.3984375" customWidth="true" style="8"/>
-    <col min="12033" max="12033" width="4.5" customWidth="true" style="8"/>
-    <col min="12034" max="12034" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12032" max="12032" width="8.09765625" style="8"/>
+    <col min="12033" max="12033" width="6.3984375" customWidth="true" style="8"/>
+    <col min="12034" max="12034" width="4.5" customWidth="true" style="8"/>
     <col min="12035" max="12035" width="8.69921875" customWidth="true" style="8"/>
     <col min="12036" max="12036" width="8.69921875" customWidth="true" style="8"/>
     <col min="12037" max="12037" width="8.69921875" customWidth="true" style="8"/>
     <col min="12038" max="12038" width="8.69921875" customWidth="true" style="8"/>
-    <col min="12039" max="12039" width="22" customWidth="true" style="8"/>
-    <col min="12040" max="12040" width="5.5" customWidth="true" style="8"/>
-    <col min="12041" max="12041" width="8.09765625" style="8"/>
+    <col min="12039" max="12039" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12040" max="12040" width="22" customWidth="true" style="8"/>
+    <col min="12041" max="12041" width="5.5" customWidth="true" style="8"/>
     <col min="12042" max="12042" width="8.09765625" style="8"/>
     <col min="12043" max="12043" width="8.09765625" style="8"/>
     <col min="12044" max="12044" width="8.09765625" style="8"/>
@@ -13083,16 +13227,16 @@
     <col min="12285" max="12285" width="8.09765625" style="8"/>
     <col min="12286" max="12286" width="8.09765625" style="8"/>
     <col min="12287" max="12287" width="8.09765625" style="8"/>
-    <col min="12288" max="12288" width="6.3984375" customWidth="true" style="8"/>
-    <col min="12289" max="12289" width="4.5" customWidth="true" style="8"/>
-    <col min="12290" max="12290" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12288" max="12288" width="8.09765625" style="8"/>
+    <col min="12289" max="12289" width="6.3984375" customWidth="true" style="8"/>
+    <col min="12290" max="12290" width="4.5" customWidth="true" style="8"/>
     <col min="12291" max="12291" width="8.69921875" customWidth="true" style="8"/>
     <col min="12292" max="12292" width="8.69921875" customWidth="true" style="8"/>
     <col min="12293" max="12293" width="8.69921875" customWidth="true" style="8"/>
     <col min="12294" max="12294" width="8.69921875" customWidth="true" style="8"/>
-    <col min="12295" max="12295" width="22" customWidth="true" style="8"/>
-    <col min="12296" max="12296" width="5.5" customWidth="true" style="8"/>
-    <col min="12297" max="12297" width="8.09765625" style="8"/>
+    <col min="12295" max="12295" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12296" max="12296" width="22" customWidth="true" style="8"/>
+    <col min="12297" max="12297" width="5.5" customWidth="true" style="8"/>
     <col min="12298" max="12298" width="8.09765625" style="8"/>
     <col min="12299" max="12299" width="8.09765625" style="8"/>
     <col min="12300" max="12300" width="8.09765625" style="8"/>
@@ -13339,16 +13483,16 @@
     <col min="12541" max="12541" width="8.09765625" style="8"/>
     <col min="12542" max="12542" width="8.09765625" style="8"/>
     <col min="12543" max="12543" width="8.09765625" style="8"/>
-    <col min="12544" max="12544" width="6.3984375" customWidth="true" style="8"/>
-    <col min="12545" max="12545" width="4.5" customWidth="true" style="8"/>
-    <col min="12546" max="12546" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12544" max="12544" width="8.09765625" style="8"/>
+    <col min="12545" max="12545" width="6.3984375" customWidth="true" style="8"/>
+    <col min="12546" max="12546" width="4.5" customWidth="true" style="8"/>
     <col min="12547" max="12547" width="8.69921875" customWidth="true" style="8"/>
     <col min="12548" max="12548" width="8.69921875" customWidth="true" style="8"/>
     <col min="12549" max="12549" width="8.69921875" customWidth="true" style="8"/>
     <col min="12550" max="12550" width="8.69921875" customWidth="true" style="8"/>
-    <col min="12551" max="12551" width="22" customWidth="true" style="8"/>
-    <col min="12552" max="12552" width="5.5" customWidth="true" style="8"/>
-    <col min="12553" max="12553" width="8.09765625" style="8"/>
+    <col min="12551" max="12551" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12552" max="12552" width="22" customWidth="true" style="8"/>
+    <col min="12553" max="12553" width="5.5" customWidth="true" style="8"/>
     <col min="12554" max="12554" width="8.09765625" style="8"/>
     <col min="12555" max="12555" width="8.09765625" style="8"/>
     <col min="12556" max="12556" width="8.09765625" style="8"/>
@@ -13595,16 +13739,16 @@
     <col min="12797" max="12797" width="8.09765625" style="8"/>
     <col min="12798" max="12798" width="8.09765625" style="8"/>
     <col min="12799" max="12799" width="8.09765625" style="8"/>
-    <col min="12800" max="12800" width="6.3984375" customWidth="true" style="8"/>
-    <col min="12801" max="12801" width="4.5" customWidth="true" style="8"/>
-    <col min="12802" max="12802" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12800" max="12800" width="8.09765625" style="8"/>
+    <col min="12801" max="12801" width="6.3984375" customWidth="true" style="8"/>
+    <col min="12802" max="12802" width="4.5" customWidth="true" style="8"/>
     <col min="12803" max="12803" width="8.69921875" customWidth="true" style="8"/>
     <col min="12804" max="12804" width="8.69921875" customWidth="true" style="8"/>
     <col min="12805" max="12805" width="8.69921875" customWidth="true" style="8"/>
     <col min="12806" max="12806" width="8.69921875" customWidth="true" style="8"/>
-    <col min="12807" max="12807" width="22" customWidth="true" style="8"/>
-    <col min="12808" max="12808" width="5.5" customWidth="true" style="8"/>
-    <col min="12809" max="12809" width="8.09765625" style="8"/>
+    <col min="12807" max="12807" width="8.69921875" customWidth="true" style="8"/>
+    <col min="12808" max="12808" width="22" customWidth="true" style="8"/>
+    <col min="12809" max="12809" width="5.5" customWidth="true" style="8"/>
     <col min="12810" max="12810" width="8.09765625" style="8"/>
     <col min="12811" max="12811" width="8.09765625" style="8"/>
     <col min="12812" max="12812" width="8.09765625" style="8"/>
@@ -13851,16 +13995,16 @@
     <col min="13053" max="13053" width="8.09765625" style="8"/>
     <col min="13054" max="13054" width="8.09765625" style="8"/>
     <col min="13055" max="13055" width="8.09765625" style="8"/>
-    <col min="13056" max="13056" width="6.3984375" customWidth="true" style="8"/>
-    <col min="13057" max="13057" width="4.5" customWidth="true" style="8"/>
-    <col min="13058" max="13058" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13056" max="13056" width="8.09765625" style="8"/>
+    <col min="13057" max="13057" width="6.3984375" customWidth="true" style="8"/>
+    <col min="13058" max="13058" width="4.5" customWidth="true" style="8"/>
     <col min="13059" max="13059" width="8.69921875" customWidth="true" style="8"/>
     <col min="13060" max="13060" width="8.69921875" customWidth="true" style="8"/>
     <col min="13061" max="13061" width="8.69921875" customWidth="true" style="8"/>
     <col min="13062" max="13062" width="8.69921875" customWidth="true" style="8"/>
-    <col min="13063" max="13063" width="22" customWidth="true" style="8"/>
-    <col min="13064" max="13064" width="5.5" customWidth="true" style="8"/>
-    <col min="13065" max="13065" width="8.09765625" style="8"/>
+    <col min="13063" max="13063" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13064" max="13064" width="22" customWidth="true" style="8"/>
+    <col min="13065" max="13065" width="5.5" customWidth="true" style="8"/>
     <col min="13066" max="13066" width="8.09765625" style="8"/>
     <col min="13067" max="13067" width="8.09765625" style="8"/>
     <col min="13068" max="13068" width="8.09765625" style="8"/>
@@ -14107,16 +14251,16 @@
     <col min="13309" max="13309" width="8.09765625" style="8"/>
     <col min="13310" max="13310" width="8.09765625" style="8"/>
     <col min="13311" max="13311" width="8.09765625" style="8"/>
-    <col min="13312" max="13312" width="6.3984375" customWidth="true" style="8"/>
-    <col min="13313" max="13313" width="4.5" customWidth="true" style="8"/>
-    <col min="13314" max="13314" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13312" max="13312" width="8.09765625" style="8"/>
+    <col min="13313" max="13313" width="6.3984375" customWidth="true" style="8"/>
+    <col min="13314" max="13314" width="4.5" customWidth="true" style="8"/>
     <col min="13315" max="13315" width="8.69921875" customWidth="true" style="8"/>
     <col min="13316" max="13316" width="8.69921875" customWidth="true" style="8"/>
     <col min="13317" max="13317" width="8.69921875" customWidth="true" style="8"/>
     <col min="13318" max="13318" width="8.69921875" customWidth="true" style="8"/>
-    <col min="13319" max="13319" width="22" customWidth="true" style="8"/>
-    <col min="13320" max="13320" width="5.5" customWidth="true" style="8"/>
-    <col min="13321" max="13321" width="8.09765625" style="8"/>
+    <col min="13319" max="13319" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13320" max="13320" width="22" customWidth="true" style="8"/>
+    <col min="13321" max="13321" width="5.5" customWidth="true" style="8"/>
     <col min="13322" max="13322" width="8.09765625" style="8"/>
     <col min="13323" max="13323" width="8.09765625" style="8"/>
     <col min="13324" max="13324" width="8.09765625" style="8"/>
@@ -14363,16 +14507,16 @@
     <col min="13565" max="13565" width="8.09765625" style="8"/>
     <col min="13566" max="13566" width="8.09765625" style="8"/>
     <col min="13567" max="13567" width="8.09765625" style="8"/>
-    <col min="13568" max="13568" width="6.3984375" customWidth="true" style="8"/>
-    <col min="13569" max="13569" width="4.5" customWidth="true" style="8"/>
-    <col min="13570" max="13570" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13568" max="13568" width="8.09765625" style="8"/>
+    <col min="13569" max="13569" width="6.3984375" customWidth="true" style="8"/>
+    <col min="13570" max="13570" width="4.5" customWidth="true" style="8"/>
     <col min="13571" max="13571" width="8.69921875" customWidth="true" style="8"/>
     <col min="13572" max="13572" width="8.69921875" customWidth="true" style="8"/>
     <col min="13573" max="13573" width="8.69921875" customWidth="true" style="8"/>
     <col min="13574" max="13574" width="8.69921875" customWidth="true" style="8"/>
-    <col min="13575" max="13575" width="22" customWidth="true" style="8"/>
-    <col min="13576" max="13576" width="5.5" customWidth="true" style="8"/>
-    <col min="13577" max="13577" width="8.09765625" style="8"/>
+    <col min="13575" max="13575" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13576" max="13576" width="22" customWidth="true" style="8"/>
+    <col min="13577" max="13577" width="5.5" customWidth="true" style="8"/>
     <col min="13578" max="13578" width="8.09765625" style="8"/>
     <col min="13579" max="13579" width="8.09765625" style="8"/>
     <col min="13580" max="13580" width="8.09765625" style="8"/>
@@ -14619,16 +14763,16 @@
     <col min="13821" max="13821" width="8.09765625" style="8"/>
     <col min="13822" max="13822" width="8.09765625" style="8"/>
     <col min="13823" max="13823" width="8.09765625" style="8"/>
-    <col min="13824" max="13824" width="6.3984375" customWidth="true" style="8"/>
-    <col min="13825" max="13825" width="4.5" customWidth="true" style="8"/>
-    <col min="13826" max="13826" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13824" max="13824" width="8.09765625" style="8"/>
+    <col min="13825" max="13825" width="6.3984375" customWidth="true" style="8"/>
+    <col min="13826" max="13826" width="4.5" customWidth="true" style="8"/>
     <col min="13827" max="13827" width="8.69921875" customWidth="true" style="8"/>
     <col min="13828" max="13828" width="8.69921875" customWidth="true" style="8"/>
     <col min="13829" max="13829" width="8.69921875" customWidth="true" style="8"/>
     <col min="13830" max="13830" width="8.69921875" customWidth="true" style="8"/>
-    <col min="13831" max="13831" width="22" customWidth="true" style="8"/>
-    <col min="13832" max="13832" width="5.5" customWidth="true" style="8"/>
-    <col min="13833" max="13833" width="8.09765625" style="8"/>
+    <col min="13831" max="13831" width="8.69921875" customWidth="true" style="8"/>
+    <col min="13832" max="13832" width="22" customWidth="true" style="8"/>
+    <col min="13833" max="13833" width="5.5" customWidth="true" style="8"/>
     <col min="13834" max="13834" width="8.09765625" style="8"/>
     <col min="13835" max="13835" width="8.09765625" style="8"/>
     <col min="13836" max="13836" width="8.09765625" style="8"/>
@@ -14875,16 +15019,16 @@
     <col min="14077" max="14077" width="8.09765625" style="8"/>
     <col min="14078" max="14078" width="8.09765625" style="8"/>
     <col min="14079" max="14079" width="8.09765625" style="8"/>
-    <col min="14080" max="14080" width="6.3984375" customWidth="true" style="8"/>
-    <col min="14081" max="14081" width="4.5" customWidth="true" style="8"/>
-    <col min="14082" max="14082" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14080" max="14080" width="8.09765625" style="8"/>
+    <col min="14081" max="14081" width="6.3984375" customWidth="true" style="8"/>
+    <col min="14082" max="14082" width="4.5" customWidth="true" style="8"/>
     <col min="14083" max="14083" width="8.69921875" customWidth="true" style="8"/>
     <col min="14084" max="14084" width="8.69921875" customWidth="true" style="8"/>
     <col min="14085" max="14085" width="8.69921875" customWidth="true" style="8"/>
     <col min="14086" max="14086" width="8.69921875" customWidth="true" style="8"/>
-    <col min="14087" max="14087" width="22" customWidth="true" style="8"/>
-    <col min="14088" max="14088" width="5.5" customWidth="true" style="8"/>
-    <col min="14089" max="14089" width="8.09765625" style="8"/>
+    <col min="14087" max="14087" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14088" max="14088" width="22" customWidth="true" style="8"/>
+    <col min="14089" max="14089" width="5.5" customWidth="true" style="8"/>
     <col min="14090" max="14090" width="8.09765625" style="8"/>
     <col min="14091" max="14091" width="8.09765625" style="8"/>
     <col min="14092" max="14092" width="8.09765625" style="8"/>
@@ -15131,16 +15275,16 @@
     <col min="14333" max="14333" width="8.09765625" style="8"/>
     <col min="14334" max="14334" width="8.09765625" style="8"/>
     <col min="14335" max="14335" width="8.09765625" style="8"/>
-    <col min="14336" max="14336" width="6.3984375" customWidth="true" style="8"/>
-    <col min="14337" max="14337" width="4.5" customWidth="true" style="8"/>
-    <col min="14338" max="14338" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14336" max="14336" width="8.09765625" style="8"/>
+    <col min="14337" max="14337" width="6.3984375" customWidth="true" style="8"/>
+    <col min="14338" max="14338" width="4.5" customWidth="true" style="8"/>
     <col min="14339" max="14339" width="8.69921875" customWidth="true" style="8"/>
     <col min="14340" max="14340" width="8.69921875" customWidth="true" style="8"/>
     <col min="14341" max="14341" width="8.69921875" customWidth="true" style="8"/>
     <col min="14342" max="14342" width="8.69921875" customWidth="true" style="8"/>
-    <col min="14343" max="14343" width="22" customWidth="true" style="8"/>
-    <col min="14344" max="14344" width="5.5" customWidth="true" style="8"/>
-    <col min="14345" max="14345" width="8.09765625" style="8"/>
+    <col min="14343" max="14343" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14344" max="14344" width="22" customWidth="true" style="8"/>
+    <col min="14345" max="14345" width="5.5" customWidth="true" style="8"/>
     <col min="14346" max="14346" width="8.09765625" style="8"/>
     <col min="14347" max="14347" width="8.09765625" style="8"/>
     <col min="14348" max="14348" width="8.09765625" style="8"/>
@@ -15387,16 +15531,16 @@
     <col min="14589" max="14589" width="8.09765625" style="8"/>
     <col min="14590" max="14590" width="8.09765625" style="8"/>
     <col min="14591" max="14591" width="8.09765625" style="8"/>
-    <col min="14592" max="14592" width="6.3984375" customWidth="true" style="8"/>
-    <col min="14593" max="14593" width="4.5" customWidth="true" style="8"/>
-    <col min="14594" max="14594" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14592" max="14592" width="8.09765625" style="8"/>
+    <col min="14593" max="14593" width="6.3984375" customWidth="true" style="8"/>
+    <col min="14594" max="14594" width="4.5" customWidth="true" style="8"/>
     <col min="14595" max="14595" width="8.69921875" customWidth="true" style="8"/>
     <col min="14596" max="14596" width="8.69921875" customWidth="true" style="8"/>
     <col min="14597" max="14597" width="8.69921875" customWidth="true" style="8"/>
     <col min="14598" max="14598" width="8.69921875" customWidth="true" style="8"/>
-    <col min="14599" max="14599" width="22" customWidth="true" style="8"/>
-    <col min="14600" max="14600" width="5.5" customWidth="true" style="8"/>
-    <col min="14601" max="14601" width="8.09765625" style="8"/>
+    <col min="14599" max="14599" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14600" max="14600" width="22" customWidth="true" style="8"/>
+    <col min="14601" max="14601" width="5.5" customWidth="true" style="8"/>
     <col min="14602" max="14602" width="8.09765625" style="8"/>
     <col min="14603" max="14603" width="8.09765625" style="8"/>
     <col min="14604" max="14604" width="8.09765625" style="8"/>
@@ -15643,16 +15787,16 @@
     <col min="14845" max="14845" width="8.09765625" style="8"/>
     <col min="14846" max="14846" width="8.09765625" style="8"/>
     <col min="14847" max="14847" width="8.09765625" style="8"/>
-    <col min="14848" max="14848" width="6.3984375" customWidth="true" style="8"/>
-    <col min="14849" max="14849" width="4.5" customWidth="true" style="8"/>
-    <col min="14850" max="14850" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14848" max="14848" width="8.09765625" style="8"/>
+    <col min="14849" max="14849" width="6.3984375" customWidth="true" style="8"/>
+    <col min="14850" max="14850" width="4.5" customWidth="true" style="8"/>
     <col min="14851" max="14851" width="8.69921875" customWidth="true" style="8"/>
     <col min="14852" max="14852" width="8.69921875" customWidth="true" style="8"/>
     <col min="14853" max="14853" width="8.69921875" customWidth="true" style="8"/>
     <col min="14854" max="14854" width="8.69921875" customWidth="true" style="8"/>
-    <col min="14855" max="14855" width="22" customWidth="true" style="8"/>
-    <col min="14856" max="14856" width="5.5" customWidth="true" style="8"/>
-    <col min="14857" max="14857" width="8.09765625" style="8"/>
+    <col min="14855" max="14855" width="8.69921875" customWidth="true" style="8"/>
+    <col min="14856" max="14856" width="22" customWidth="true" style="8"/>
+    <col min="14857" max="14857" width="5.5" customWidth="true" style="8"/>
     <col min="14858" max="14858" width="8.09765625" style="8"/>
     <col min="14859" max="14859" width="8.09765625" style="8"/>
     <col min="14860" max="14860" width="8.09765625" style="8"/>
@@ -15899,16 +16043,16 @@
     <col min="15101" max="15101" width="8.09765625" style="8"/>
     <col min="15102" max="15102" width="8.09765625" style="8"/>
     <col min="15103" max="15103" width="8.09765625" style="8"/>
-    <col min="15104" max="15104" width="6.3984375" customWidth="true" style="8"/>
-    <col min="15105" max="15105" width="4.5" customWidth="true" style="8"/>
-    <col min="15106" max="15106" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15104" max="15104" width="8.09765625" style="8"/>
+    <col min="15105" max="15105" width="6.3984375" customWidth="true" style="8"/>
+    <col min="15106" max="15106" width="4.5" customWidth="true" style="8"/>
     <col min="15107" max="15107" width="8.69921875" customWidth="true" style="8"/>
     <col min="15108" max="15108" width="8.69921875" customWidth="true" style="8"/>
     <col min="15109" max="15109" width="8.69921875" customWidth="true" style="8"/>
     <col min="15110" max="15110" width="8.69921875" customWidth="true" style="8"/>
-    <col min="15111" max="15111" width="22" customWidth="true" style="8"/>
-    <col min="15112" max="15112" width="5.5" customWidth="true" style="8"/>
-    <col min="15113" max="15113" width="8.09765625" style="8"/>
+    <col min="15111" max="15111" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15112" max="15112" width="22" customWidth="true" style="8"/>
+    <col min="15113" max="15113" width="5.5" customWidth="true" style="8"/>
     <col min="15114" max="15114" width="8.09765625" style="8"/>
     <col min="15115" max="15115" width="8.09765625" style="8"/>
     <col min="15116" max="15116" width="8.09765625" style="8"/>
@@ -16155,16 +16299,16 @@
     <col min="15357" max="15357" width="8.09765625" style="8"/>
     <col min="15358" max="15358" width="8.09765625" style="8"/>
     <col min="15359" max="15359" width="8.09765625" style="8"/>
-    <col min="15360" max="15360" width="6.3984375" customWidth="true" style="8"/>
-    <col min="15361" max="15361" width="4.5" customWidth="true" style="8"/>
-    <col min="15362" max="15362" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15360" max="15360" width="8.09765625" style="8"/>
+    <col min="15361" max="15361" width="6.3984375" customWidth="true" style="8"/>
+    <col min="15362" max="15362" width="4.5" customWidth="true" style="8"/>
     <col min="15363" max="15363" width="8.69921875" customWidth="true" style="8"/>
     <col min="15364" max="15364" width="8.69921875" customWidth="true" style="8"/>
     <col min="15365" max="15365" width="8.69921875" customWidth="true" style="8"/>
     <col min="15366" max="15366" width="8.69921875" customWidth="true" style="8"/>
-    <col min="15367" max="15367" width="22" customWidth="true" style="8"/>
-    <col min="15368" max="15368" width="5.5" customWidth="true" style="8"/>
-    <col min="15369" max="15369" width="8.09765625" style="8"/>
+    <col min="15367" max="15367" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15368" max="15368" width="22" customWidth="true" style="8"/>
+    <col min="15369" max="15369" width="5.5" customWidth="true" style="8"/>
     <col min="15370" max="15370" width="8.09765625" style="8"/>
     <col min="15371" max="15371" width="8.09765625" style="8"/>
     <col min="15372" max="15372" width="8.09765625" style="8"/>
@@ -16411,16 +16555,16 @@
     <col min="15613" max="15613" width="8.09765625" style="8"/>
     <col min="15614" max="15614" width="8.09765625" style="8"/>
     <col min="15615" max="15615" width="8.09765625" style="8"/>
-    <col min="15616" max="15616" width="6.3984375" customWidth="true" style="8"/>
-    <col min="15617" max="15617" width="4.5" customWidth="true" style="8"/>
-    <col min="15618" max="15618" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15616" max="15616" width="8.09765625" style="8"/>
+    <col min="15617" max="15617" width="6.3984375" customWidth="true" style="8"/>
+    <col min="15618" max="15618" width="4.5" customWidth="true" style="8"/>
     <col min="15619" max="15619" width="8.69921875" customWidth="true" style="8"/>
     <col min="15620" max="15620" width="8.69921875" customWidth="true" style="8"/>
     <col min="15621" max="15621" width="8.69921875" customWidth="true" style="8"/>
     <col min="15622" max="15622" width="8.69921875" customWidth="true" style="8"/>
-    <col min="15623" max="15623" width="22" customWidth="true" style="8"/>
-    <col min="15624" max="15624" width="5.5" customWidth="true" style="8"/>
-    <col min="15625" max="15625" width="8.09765625" style="8"/>
+    <col min="15623" max="15623" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15624" max="15624" width="22" customWidth="true" style="8"/>
+    <col min="15625" max="15625" width="5.5" customWidth="true" style="8"/>
     <col min="15626" max="15626" width="8.09765625" style="8"/>
     <col min="15627" max="15627" width="8.09765625" style="8"/>
     <col min="15628" max="15628" width="8.09765625" style="8"/>
@@ -16667,16 +16811,16 @@
     <col min="15869" max="15869" width="8.09765625" style="8"/>
     <col min="15870" max="15870" width="8.09765625" style="8"/>
     <col min="15871" max="15871" width="8.09765625" style="8"/>
-    <col min="15872" max="15872" width="6.3984375" customWidth="true" style="8"/>
-    <col min="15873" max="15873" width="4.5" customWidth="true" style="8"/>
-    <col min="15874" max="15874" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15872" max="15872" width="8.09765625" style="8"/>
+    <col min="15873" max="15873" width="6.3984375" customWidth="true" style="8"/>
+    <col min="15874" max="15874" width="4.5" customWidth="true" style="8"/>
     <col min="15875" max="15875" width="8.69921875" customWidth="true" style="8"/>
     <col min="15876" max="15876" width="8.69921875" customWidth="true" style="8"/>
     <col min="15877" max="15877" width="8.69921875" customWidth="true" style="8"/>
     <col min="15878" max="15878" width="8.69921875" customWidth="true" style="8"/>
-    <col min="15879" max="15879" width="22" customWidth="true" style="8"/>
-    <col min="15880" max="15880" width="5.5" customWidth="true" style="8"/>
-    <col min="15881" max="15881" width="8.09765625" style="8"/>
+    <col min="15879" max="15879" width="8.69921875" customWidth="true" style="8"/>
+    <col min="15880" max="15880" width="22" customWidth="true" style="8"/>
+    <col min="15881" max="15881" width="5.5" customWidth="true" style="8"/>
     <col min="15882" max="15882" width="8.09765625" style="8"/>
     <col min="15883" max="15883" width="8.09765625" style="8"/>
     <col min="15884" max="15884" width="8.09765625" style="8"/>
@@ -16923,599 +17067,752 @@
     <col min="16125" max="16125" width="8.09765625" style="8"/>
     <col min="16126" max="16126" width="8.09765625" style="8"/>
     <col min="16127" max="16127" width="8.09765625" style="8"/>
-    <col min="16128" max="16128" width="6.3984375" customWidth="true" style="8"/>
-    <col min="16129" max="16129" width="4.5" customWidth="true" style="8"/>
-    <col min="16130" max="16130" width="8.69921875" customWidth="true" style="8"/>
+    <col min="16128" max="16128" width="8.09765625" style="8"/>
+    <col min="16129" max="16129" width="6.3984375" customWidth="true" style="8"/>
+    <col min="16130" max="16130" width="4.5" customWidth="true" style="8"/>
     <col min="16131" max="16131" width="8.69921875" customWidth="true" style="8"/>
     <col min="16132" max="16132" width="8.69921875" customWidth="true" style="8"/>
     <col min="16133" max="16133" width="8.69921875" customWidth="true" style="8"/>
     <col min="16134" max="16134" width="8.69921875" customWidth="true" style="8"/>
-    <col min="16135" max="16135" width="22" customWidth="true" style="8"/>
-    <col min="16136" max="16136" width="5.5" customWidth="true" style="8"/>
-    <col min="16137" max="16137" width="8.09765625" style="8"/>
+    <col min="16135" max="16135" width="8.69921875" customWidth="true" style="8"/>
+    <col min="16136" max="16136" width="22" customWidth="true" style="8"/>
+    <col min="16137" max="16137" width="5.5" customWidth="true" style="8"/>
+    <col min="16138" max="16138" width="8.09765625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16137" customHeight="1" ht="19.2">
+    <row r="1" spans="1:16138" customHeight="1" ht="19.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="7"/>
     </row>
-    <row r="2" spans="1:16137" customHeight="1" ht="15">
+    <row r="2" spans="1:16138" customHeight="1" ht="15">
       <c r="A2" s="9"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
+      <c r="F2" s="5"/>
       <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:16137" customHeight="1" ht="19.5">
+    <row r="3" spans="1:16138" customHeight="1" ht="19.5">
       <c r="A3" s="10"/>
-      <c r="B3" s="27"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="28"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
     </row>
-    <row r="4" spans="1:16137" customHeight="1" ht="19.5">
+    <row r="4" spans="1:16138" customHeight="1" ht="19.5">
       <c r="A4" s="13"/>
-      <c r="B4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="34" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="38" t="s">
+      <c r="G4" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="38"/>
+      <c r="H4" s="42"/>
     </row>
-    <row r="5" spans="1:16137" customHeight="1" ht="15">
-      <c r="D5" s="15"/>
+    <row r="5" spans="1:16138" customHeight="1" ht="15">
       <c r="E5" s="15"/>
-      <c r="F5" s="30"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
-    <row r="6" spans="1:16137" customHeight="1" ht="15">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:16138" customHeight="1" ht="15">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="35"/>
-      <c r="F6" s="47" t="s">
+      <c r="E6" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="37" t="s">
+      <c r="F6" s="39"/>
+      <c r="G6" s="46" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:16137" customHeight="1" ht="15">
-      <c r="A7" s="49"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="16" t="s">
+      <c r="H6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17" t="s">
+    </row>
+    <row r="7" spans="1:16138" customHeight="1" ht="15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="47"/>
+      <c r="C7" s="40"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="48"/>
-      <c r="G7" s="35"/>
-    </row>
-    <row r="8" spans="1:16137" customHeight="1" ht="15">
-      <c r="A8" s="51" t="s">
+      <c r="F7" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="21"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="39"/>
     </row>
-    <row r="9" spans="1:16137" customHeight="1" ht="15">
-      <c r="A9" s="51" t="s">
+    <row r="8" spans="1:16138" customHeight="1" ht="15">
+      <c r="A8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21"/>
-    </row>
-    <row r="10" spans="1:16137" customHeight="1" ht="15">
-      <c r="A10" s="51" t="s">
+      <c r="B8" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21"/>
-    </row>
-    <row r="11" spans="1:16137" customHeight="1" ht="15">
-      <c r="A11" s="51" t="s">
+      <c r="C8" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21"/>
-    </row>
-    <row r="12" spans="1:16137" customHeight="1" ht="18">
-      <c r="A12" s="51" t="s">
+      <c r="D8" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="50"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="21"/>
-    </row>
-    <row r="13" spans="1:16137" customHeight="1" ht="15">
-      <c r="A13" s="51" t="s">
+      <c r="E8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="50"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="21"/>
-    </row>
-    <row r="14" spans="1:16137" customHeight="1" ht="18">
-      <c r="A14" s="51" t="s">
+      <c r="F8" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="50"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="21"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="21"/>
     </row>
-    <row r="15" spans="1:16137" customHeight="1" ht="15">
-      <c r="A15" s="51" t="s">
+    <row r="9" spans="1:16138" customHeight="1" ht="15">
+      <c r="A9" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-    </row>
-    <row r="16" spans="1:16137" customHeight="1" ht="15">
-      <c r="A16" s="51" t="s">
+      <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21"/>
+      <c r="C9" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="22"/>
+      <c r="H9" s="21"/>
     </row>
-    <row r="17" spans="1:16137" customHeight="1" ht="15">
-      <c r="A17" s="51" t="s">
+    <row r="10" spans="1:16138" customHeight="1" ht="15">
+      <c r="A10" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21"/>
-    </row>
-    <row r="18" spans="1:16137" customHeight="1" ht="15">
-      <c r="A18" s="51" t="s">
+      <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21"/>
+      <c r="C10" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="22"/>
+      <c r="H10" s="21"/>
     </row>
-    <row r="19" spans="1:16137" customHeight="1" ht="15">
-      <c r="A19" s="51" t="s">
+    <row r="11" spans="1:16138" customHeight="1" ht="15">
+      <c r="A11" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="50"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:16137" customHeight="1" ht="15">
-      <c r="A20" s="51" t="s">
+      <c r="B11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="50"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="21"/>
     </row>
-    <row r="21" spans="1:16137" customHeight="1" ht="15">
-      <c r="A21" s="51" t="s">
+    <row r="12" spans="1:16138" customHeight="1" ht="18">
+      <c r="A12" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:16137" customHeight="1" ht="15">
-      <c r="A22" s="51" t="s">
+      <c r="B12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="21"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="21"/>
     </row>
-    <row r="23" spans="1:16137" customHeight="1" ht="15">
-      <c r="A23" s="51" t="s">
+    <row r="13" spans="1:16138" customHeight="1" ht="15">
+      <c r="A13" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="21"/>
-    </row>
-    <row r="24" spans="1:16137" customHeight="1" ht="15">
-      <c r="A24" s="51" t="s">
+      <c r="B13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="50"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21"/>
-    </row>
-    <row r="25" spans="1:16137" customHeight="1" ht="15">
-      <c r="A25" s="51" t="s">
+      <c r="C13" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="50"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21"/>
-    </row>
-    <row r="26" spans="1:16137" customHeight="1" ht="15">
-      <c r="A26" s="51" t="s">
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21"/>
+      <c r="F13" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="24"/>
+      <c r="H13" s="21"/>
     </row>
-    <row r="27" spans="1:16137" customHeight="1" ht="15">
-      <c r="A27" s="51" t="s">
+    <row r="14" spans="1:16138" customHeight="1" ht="18">
+      <c r="A14" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="50"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="21"/>
-    </row>
-    <row r="28" spans="1:16137" customHeight="1" ht="15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="18" t="s">
+      <c r="B14" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="25"/>
+      <c r="H14" s="21"/>
+    </row>
+    <row r="15" spans="1:16138" customHeight="1" ht="15">
+      <c r="A15" s="37" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G15" s="22"/>
+      <c r="H15" s="21"/>
+    </row>
+    <row r="16" spans="1:16138" customHeight="1" ht="15">
+      <c r="A16" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G16" s="22"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="1:16138" customHeight="1" ht="15">
+      <c r="A17" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" s="22"/>
+      <c r="H17" s="21"/>
+    </row>
+    <row r="18" spans="1:16138" customHeight="1" ht="15">
+      <c r="A18" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="21"/>
+    </row>
+    <row r="19" spans="1:16138" customHeight="1" ht="15">
+      <c r="A19" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="21"/>
+    </row>
+    <row r="20" spans="1:16138" customHeight="1" ht="15">
+      <c r="A20" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="22"/>
+      <c r="H20" s="21"/>
+    </row>
+    <row r="21" spans="1:16138" customHeight="1" ht="15">
+      <c r="A21" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="C21" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="22"/>
+      <c r="H21" s="21"/>
+    </row>
+    <row r="22" spans="1:16138" customHeight="1" ht="15">
+      <c r="A22" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:16138" customHeight="1" ht="15">
+      <c r="A23" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="21"/>
+    </row>
+    <row r="24" spans="1:16138" customHeight="1" ht="15">
+      <c r="A24" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" s="22"/>
+      <c r="H24" s="21"/>
+    </row>
+    <row r="25" spans="1:16138" customHeight="1" ht="15">
+      <c r="A25" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+    </row>
+    <row r="26" spans="1:16138" customHeight="1" ht="15">
+      <c r="A26" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
+    </row>
+    <row r="27" spans="1:16138" customHeight="1" ht="15">
+      <c r="A27" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="28" spans="1:16138" customHeight="1" ht="15">
+      <c r="A28" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="50" t="s">
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
+    </row>
+    <row r="29" spans="1:16138" customHeight="1" ht="15">
+      <c r="A29" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+    </row>
+    <row r="30" spans="1:16138" customHeight="1" ht="15">
+      <c r="A30" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+    </row>
+    <row r="31" spans="1:16138" customHeight="1" ht="15">
+      <c r="A31" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
+    </row>
+    <row r="32" spans="1:16138" customHeight="1" ht="15">
+      <c r="A32" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="21"/>
+    </row>
+    <row r="33" spans="1:16138" customHeight="1" ht="15">
+      <c r="A33" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="21"/>
+    </row>
+    <row r="34" spans="1:16138" customHeight="1" ht="15">
+      <c r="A34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="21"/>
+    </row>
+    <row r="35" spans="1:16138" customHeight="1" ht="15">
+      <c r="A35" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="22"/>
+      <c r="H35" s="21"/>
     </row>
-    <row r="29" spans="1:16137" customHeight="1" ht="15">
-      <c r="A29" s="51"/>
-      <c r="B29" s="18" t="s">
-        <v>31</v>
+    <row r="36" spans="1:16138" customHeight="1" ht="15">
+      <c r="A36" s="37"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>31</v>
+      <c r="D36" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="D29" s="19" t="s">
-        <v>31</v>
+      <c r="E36" s="19" t="s">
+        <v>68</v>
       </c>
-      <c r="E29" s="50" t="s">
-        <v>31</v>
+      <c r="F36" s="36" t="s">
+        <v>68</v>
       </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21"/>
+      <c r="G36" s="22"/>
+      <c r="H36" s="21"/>
     </row>
-    <row r="30" spans="1:16137" customHeight="1" ht="15">
-      <c r="A30" s="51"/>
-      <c r="B30" s="18" t="s">
-        <v>31</v>
+    <row r="37" spans="1:16138" customHeight="1" ht="15">
+      <c r="A37" s="37"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>31</v>
+      <c r="D37" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="D30" s="19" t="s">
-        <v>31</v>
+      <c r="E37" s="19" t="s">
+        <v>68</v>
       </c>
-      <c r="E30" s="50" t="s">
-        <v>31</v>
+      <c r="F37" s="36" t="s">
+        <v>68</v>
       </c>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="21"/>
     </row>
-    <row r="31" spans="1:16137" customHeight="1" ht="15">
-      <c r="A31" s="51"/>
-      <c r="B31" s="18" t="s">
-        <v>31</v>
+    <row r="38" spans="1:16138" customHeight="1" ht="15">
+      <c r="A38" s="37"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="C31" s="18" t="s">
-        <v>31</v>
+      <c r="D38" s="18" t="s">
+        <v>68</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>31</v>
+      <c r="E38" s="19" t="s">
+        <v>68</v>
       </c>
-      <c r="E31" s="50" t="s">
-        <v>31</v>
+      <c r="F38" s="36" t="s">
+        <v>68</v>
       </c>
-      <c r="F31" s="22"/>
-      <c r="G31" s="21"/>
+      <c r="G38" s="22"/>
+      <c r="H38" s="21"/>
     </row>
-    <row r="32" spans="1:16137" customHeight="1" ht="15">
-      <c r="A32" s="51"/>
-      <c r="B32" s="18" t="s">
-        <v>31</v>
+    <row r="39" spans="1:16138" customHeight="1" ht="15">
+      <c r="A39" s="48" t="s">
+        <v>69</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>31</v>
+      <c r="B39" s="49"/>
+      <c r="C39" s="49"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="19" t="s">
+        <v>70</v>
       </c>
-      <c r="D32" s="19" t="s">
-        <v>31</v>
+      <c r="F39" s="19" t="s">
+        <v>71</v>
       </c>
-      <c r="E32" s="50" t="s">
-        <v>31</v>
+      <c r="G39" s="44"/>
+      <c r="H39" s="45"/>
+    </row>
+    <row r="40" spans="1:16138" customHeight="1" ht="15" s="11" customFormat="1">
+      <c r="A40" s="48" t="s">
+        <v>72</v>
       </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="21"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="49"/>
+      <c r="D40" s="50"/>
+      <c r="E40" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" s="38"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="45"/>
     </row>
-    <row r="33" spans="1:16137" customHeight="1" ht="15">
-      <c r="A33" s="51"/>
-      <c r="B33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F33" s="24"/>
-      <c r="G33" s="21"/>
+    <row r="41" spans="1:16138" customHeight="1" ht="15"/>
+    <row r="42" spans="1:16138" customHeight="1" ht="15">
+      <c r="D42" s="43"/>
+      <c r="E42" s="43"/>
+      <c r="G42" s="31"/>
     </row>
-    <row r="34" spans="1:16137" customHeight="1" ht="15">
-      <c r="A34" s="51"/>
-      <c r="B34" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F34" s="22"/>
-      <c r="G34" s="21"/>
+    <row r="43" spans="1:16138" customHeight="1" ht="15">
+      <c r="D43" s="43"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="31"/>
     </row>
-    <row r="35" spans="1:16137" customHeight="1" ht="15">
-      <c r="A35" s="51"/>
-      <c r="B35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="22"/>
-      <c r="G35" s="21"/>
+    <row r="44" spans="1:16138" customHeight="1" ht="15">
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="31"/>
     </row>
-    <row r="36" spans="1:16137" customHeight="1" ht="15">
-      <c r="A36" s="51"/>
-      <c r="B36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="21"/>
+    <row r="45" spans="1:16138" customHeight="1" ht="15">
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="33"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="26"/>
     </row>
-    <row r="37" spans="1:16137" customHeight="1" ht="15">
-      <c r="A37" s="51"/>
-      <c r="B37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
+    <row r="46" spans="1:16138" customHeight="1" ht="15">
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="31"/>
     </row>
-    <row r="38" spans="1:16137" customHeight="1" ht="15">
-      <c r="A38" s="51"/>
-      <c r="B38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
+    <row r="47" spans="1:16138" customHeight="1" ht="15">
+      <c r="D47" s="43"/>
+      <c r="E47" s="43"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="31"/>
     </row>
-    <row r="39" spans="1:16137" customHeight="1" ht="15">
-      <c r="A39" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="41"/>
-      <c r="C39" s="42"/>
-      <c r="D39" s="19">
-        <f>SUM(D8:D38)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="19">
-        <f>SUM(E8:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="43"/>
-      <c r="G39" s="44"/>
-    </row>
-    <row r="40" spans="1:16137" customHeight="1" ht="15" s="11" customFormat="1">
-      <c r="A40" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="42"/>
-      <c r="D40" s="45">
-        <v>0</v>
-      </c>
-      <c r="E40" s="46"/>
-      <c r="F40" s="43"/>
-      <c r="G40" s="44"/>
-    </row>
-    <row r="41" spans="1:16137" customHeight="1" ht="15"/>
-    <row r="42" spans="1:16137" customHeight="1" ht="15">
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="F42" s="31"/>
-    </row>
-    <row r="43" spans="1:16137" customHeight="1" ht="15">
-      <c r="C43" s="39"/>
-      <c r="D43" s="39"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="31"/>
-    </row>
-    <row r="44" spans="1:16137" customHeight="1" ht="15">
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="32"/>
-      <c r="F44" s="31"/>
-    </row>
-    <row r="45" spans="1:16137" customHeight="1" ht="15">
-      <c r="C45" s="39"/>
-      <c r="D45" s="39"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="26"/>
-    </row>
-    <row r="46" spans="1:16137" customHeight="1" ht="15">
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="31"/>
-    </row>
-    <row r="47" spans="1:16137" customHeight="1" ht="15">
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="31"/>
-    </row>
-    <row r="48" spans="1:16137" customHeight="1" ht="15">
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="31"/>
+    <row r="48" spans="1:16138" customHeight="1" ht="15">
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="31"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A40:D40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G40:H40"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="E40:F40"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/public/出勤簿.xlsx
+++ b/public/出勤簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
   <si>
     <t>出勤簿</t>
   </si>
@@ -102,25 +102,10 @@
     <t>月</t>
   </si>
   <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
     <t>2/7</t>
   </si>
   <si>
     <t>火</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>18:45</t>
-  </si>
-  <si>
-    <t>00:15</t>
   </si>
   <si>
     <t>2/8</t>
@@ -141,103 +126,19 @@
     <t>2/11</t>
   </si>
   <si>
-    <t>2/12</t>
-  </si>
-  <si>
-    <t>2/13</t>
-  </si>
-  <si>
-    <t>18:50</t>
-  </si>
-  <si>
-    <t>00:50</t>
-  </si>
-  <si>
-    <t>2/14</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>00:45</t>
-  </si>
-  <si>
-    <t>2/15</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>2/16</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>06:15</t>
-  </si>
-  <si>
-    <t>2/17</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>06:45</t>
-  </si>
-  <si>
-    <t>2/18</t>
-  </si>
-  <si>
-    <t>2/19</t>
-  </si>
-  <si>
-    <t>2/20</t>
-  </si>
-  <si>
-    <t>2/21</t>
-  </si>
-  <si>
-    <t>2/22</t>
-  </si>
-  <si>
-    <t>2/23</t>
-  </si>
-  <si>
-    <t>2/24</t>
-  </si>
-  <si>
-    <t>2/25</t>
-  </si>
-  <si>
-    <t>2/26</t>
-  </si>
-  <si>
-    <t>2/27</t>
-  </si>
-  <si>
-    <t>2/28</t>
-  </si>
-  <si>
     <t>：</t>
   </si>
   <si>
     <t>合計勤務時間</t>
   </si>
   <si>
-    <t>98:00</t>
+    <t>72:00</t>
   </si>
   <si>
-    <t>02:50</t>
+    <t>01:00</t>
   </si>
   <si>
     <t>総合計</t>
-  </si>
-  <si>
-    <t>100:50</t>
   </si>
 </sst>
 </file>
@@ -935,7 +836,7 @@
   <dimension ref="A1:WVR48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A28">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.09765625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17241,10 +17142,18 @@
       <c r="B11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="36"/>
+      <c r="C11" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
     </row>
@@ -17255,10 +17164,18 @@
       <c r="B12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="G12" s="23"/>
       <c r="H12" s="21"/>
     </row>
@@ -17269,46 +17186,30 @@
       <c r="B13" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="36"/>
       <c r="G13" s="24"/>
       <c r="H13" s="21"/>
     </row>
     <row r="14" spans="1:16138" customHeight="1" ht="18">
       <c r="A14" s="37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>34</v>
-      </c>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="36"/>
       <c r="G14" s="25"/>
       <c r="H14" s="21"/>
     </row>
     <row r="15" spans="1:16138" customHeight="1" ht="15">
       <c r="A15" s="37" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="37" t="s">
         <v>13</v>
@@ -17317,20 +17218,20 @@
         <v>14</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F15" s="36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:16138" customHeight="1" ht="15">
       <c r="A16" s="37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>19</v>
@@ -17352,7 +17253,7 @@
     </row>
     <row r="17" spans="1:16138" customHeight="1" ht="15">
       <c r="A17" s="37" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>21</v>
@@ -17361,306 +17262,342 @@
         <v>14</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="36" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:16138" customHeight="1" ht="15">
       <c r="A18" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="36"/>
+      <c r="C18" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="36" t="s">
+        <v>17</v>
+      </c>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:16138" customHeight="1" ht="15">
-      <c r="A19" s="37" t="s">
-        <v>41</v>
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B19" s="53" t="s">
-        <v>25</v>
+      <c r="D19" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="36"/>
+      <c r="E19" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:16138" customHeight="1" ht="15">
-      <c r="A20" s="37" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>27</v>
-      </c>
+      <c r="A20" s="37"/>
+      <c r="B20" s="37"/>
       <c r="C20" s="18" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E20" s="19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F20" s="36" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:16138" customHeight="1" ht="15">
-      <c r="A21" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="37" t="s">
-        <v>31</v>
-      </c>
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
       <c r="C21" s="18" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="F21" s="36" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:16138" customHeight="1" ht="15">
-      <c r="A22" s="37" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="A22" s="37"/>
+      <c r="B22" s="37"/>
       <c r="C22" s="18" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>50</v>
+        <v>36</v>
       </c>
       <c r="F22" s="36" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G22" s="24"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:16138" customHeight="1" ht="15">
-      <c r="A23" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>19</v>
-      </c>
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
       <c r="C23" s="18" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F23" s="36" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G23" s="24"/>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:16138" customHeight="1" ht="15">
-      <c r="A24" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>21</v>
-      </c>
+      <c r="A24" s="37"/>
+      <c r="B24" s="37"/>
       <c r="C24" s="18" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="F24" s="36" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="G24" s="22"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:16138" customHeight="1" ht="15">
-      <c r="A25" s="37" t="s">
-        <v>57</v>
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>23</v>
+      <c r="D25" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="36"/>
+      <c r="E25" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:16138" customHeight="1" ht="15">
-      <c r="A26" s="37" t="s">
-        <v>58</v>
+      <c r="A26" s="37"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B26" s="53" t="s">
-        <v>25</v>
+      <c r="D26" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C26" s="18"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="36"/>
+      <c r="E26" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:16138" customHeight="1" ht="15">
-      <c r="A27" s="37" t="s">
-        <v>59</v>
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B27" s="37" t="s">
-        <v>27</v>
+      <c r="D27" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C27" s="18"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="36"/>
+      <c r="E27" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F27" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G27" s="24"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:16138" customHeight="1" ht="15">
-      <c r="A28" s="37" t="s">
-        <v>60</v>
+      <c r="A28" s="37"/>
+      <c r="B28" s="37"/>
+      <c r="C28" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B28" s="37" t="s">
-        <v>31</v>
+      <c r="D28" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="36"/>
+      <c r="E28" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:16138" customHeight="1" ht="15">
-      <c r="A29" s="37" t="s">
-        <v>61</v>
+      <c r="A29" s="37"/>
+      <c r="B29" s="37"/>
+      <c r="C29" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>13</v>
+      <c r="D29" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="36"/>
+      <c r="E29" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:16138" customHeight="1" ht="15">
-      <c r="A30" s="37" t="s">
-        <v>62</v>
+      <c r="A30" s="37"/>
+      <c r="B30" s="37"/>
+      <c r="C30" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B30" s="37" t="s">
-        <v>19</v>
+      <c r="D30" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C30" s="18"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="36"/>
+      <c r="E30" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:16138" customHeight="1" ht="15">
-      <c r="A31" s="37" t="s">
-        <v>63</v>
+      <c r="A31" s="37"/>
+      <c r="B31" s="37"/>
+      <c r="C31" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B31" s="37" t="s">
-        <v>21</v>
+      <c r="D31" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C31" s="18"/>
-      <c r="D31" s="18"/>
-      <c r="E31" s="19"/>
-      <c r="F31" s="36"/>
+      <c r="E31" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G31" s="22"/>
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:16138" customHeight="1" ht="15">
-      <c r="A32" s="37" t="s">
-        <v>64</v>
+      <c r="A32" s="37"/>
+      <c r="B32" s="37"/>
+      <c r="C32" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B32" s="52" t="s">
-        <v>23</v>
+      <c r="D32" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="36"/>
+      <c r="E32" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G32" s="22"/>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:16138" customHeight="1" ht="15">
-      <c r="A33" s="37" t="s">
-        <v>65</v>
+      <c r="A33" s="37"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B33" s="53" t="s">
-        <v>25</v>
+      <c r="D33" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="36"/>
+      <c r="E33" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G33" s="24"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:16138" customHeight="1" ht="15">
-      <c r="A34" s="37" t="s">
-        <v>66</v>
+      <c r="A34" s="37"/>
+      <c r="B34" s="37"/>
+      <c r="C34" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B34" s="37" t="s">
-        <v>27</v>
+      <c r="D34" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="19"/>
-      <c r="F34" s="36"/>
+      <c r="E34" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F34" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G34" s="22"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:16138" customHeight="1" ht="15">
-      <c r="A35" s="37" t="s">
-        <v>67</v>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="B35" s="37" t="s">
-        <v>31</v>
+      <c r="D35" s="18" t="s">
+        <v>36</v>
       </c>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="36"/>
+      <c r="E35" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>36</v>
+      </c>
       <c r="G35" s="22"/>
       <c r="H35" s="21"/>
     </row>
@@ -17668,16 +17605,16 @@
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="21"/>
@@ -17686,16 +17623,16 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="21"/>
@@ -17704,45 +17641,45 @@
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:16138" customHeight="1" ht="15">
       <c r="A39" s="48" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="19" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:16138" customHeight="1" ht="15" s="11" customFormat="1">
       <c r="A40" s="48" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
       <c r="D40" s="50"/>
       <c r="E40" s="35" t="s">
-        <v>73</v>
+        <v>38</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="44"/>

--- a/public/出勤簿.xlsx
+++ b/public/出勤簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>出勤簿</t>
   </si>
@@ -126,19 +126,82 @@
     <t>2/11</t>
   </si>
   <si>
+    <t>2/12</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>21:35</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>2/13</t>
+  </si>
+  <si>
+    <t>2/14</t>
+  </si>
+  <si>
+    <t>2/15</t>
+  </si>
+  <si>
+    <t>2/16</t>
+  </si>
+  <si>
+    <t>2/17</t>
+  </si>
+  <si>
+    <t>2/18</t>
+  </si>
+  <si>
+    <t>2/19</t>
+  </si>
+  <si>
+    <t>2/20</t>
+  </si>
+  <si>
+    <t>2/21</t>
+  </si>
+  <si>
+    <t>2/22</t>
+  </si>
+  <si>
+    <t>2/23</t>
+  </si>
+  <si>
+    <t>2/24</t>
+  </si>
+  <si>
+    <t>2/25</t>
+  </si>
+  <si>
+    <t>2/26</t>
+  </si>
+  <si>
+    <t>2/27</t>
+  </si>
+  <si>
+    <t>2/28</t>
+  </si>
+  <si>
     <t>：</t>
   </si>
   <si>
     <t>合計勤務時間</t>
   </si>
   <si>
-    <t>72:00</t>
+    <t>80:00</t>
   </si>
   <si>
-    <t>01:00</t>
+    <t>01:35</t>
   </si>
   <si>
     <t>総合計</t>
+  </si>
+  <si>
+    <t>80:35</t>
   </si>
 </sst>
 </file>
@@ -279,7 +342,13 @@
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -287,14 +356,20 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -309,8 +384,10 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -320,22 +397,29 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -347,6 +431,8 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -355,26 +441,29 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="54">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -384,42 +473,30 @@
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="5" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="164" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="166" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="166" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment vertical="top" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="6" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="167" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="4" numFmtId="167" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -432,12 +509,8 @@
     <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="168" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="true"/>
     </xf>
@@ -450,30 +523,16 @@
     <xf xfId="0" fontId="0" numFmtId="168" fillId="0" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="4" numFmtId="169" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="8" numFmtId="166" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="4" numFmtId="169" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="7" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="8" numFmtId="166" fillId="0" borderId="0" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="9" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="169" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="169" fillId="0" borderId="0" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="5" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -483,12 +542,8 @@
     <xf xfId="0" fontId="0" numFmtId="20" fillId="2" borderId="6" applyFont="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="0" numFmtId="170" fillId="0" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="0" numFmtId="170" fillId="0" borderId="3" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="0" numFmtId="20" fillId="0" borderId="4" applyFont="0" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="3" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -528,12 +583,8 @@
     <xf xfId="0" fontId="4" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="10" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="11" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+    <xf xfId="0" fontId="10" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
+    <xf xfId="0" fontId="11" numFmtId="170" fillId="0" borderId="3" applyFont="1" applyNumberFormat="1" applyFill="0" applyBorder="1" applyAlignment="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +887,7 @@
   <dimension ref="A1:WVR48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1" topLeftCell="A28">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" defaultColWidth="8.09765625" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -17296,308 +17347,248 @@
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:16138" customHeight="1" ht="15">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="18" t="s">
+      <c r="A19" s="37" t="s">
         <v>36</v>
       </c>
+      <c r="B19" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="D19" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:16138" customHeight="1" ht="15">
-      <c r="A20" s="37"/>
-      <c r="B20" s="37"/>
-      <c r="C20" s="18" t="s">
-        <v>36</v>
+      <c r="A20" s="37" t="s">
+        <v>40</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>36</v>
+      <c r="B20" s="37" t="s">
+        <v>27</v>
       </c>
-      <c r="E20" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="36"/>
       <c r="G20" s="22"/>
       <c r="H20" s="21"/>
     </row>
     <row r="21" spans="1:16138" customHeight="1" ht="15">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="18" t="s">
-        <v>36</v>
+      <c r="A21" s="37" t="s">
+        <v>41</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>36</v>
+      <c r="B21" s="37" t="s">
+        <v>29</v>
       </c>
-      <c r="E21" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F21" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="36"/>
       <c r="G21" s="22"/>
       <c r="H21" s="21"/>
     </row>
     <row r="22" spans="1:16138" customHeight="1" ht="15">
-      <c r="A22" s="37"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="18" t="s">
-        <v>36</v>
+      <c r="A22" s="37" t="s">
+        <v>42</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>36</v>
+      <c r="B22" s="37" t="s">
+        <v>13</v>
       </c>
-      <c r="E22" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F22" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="36"/>
       <c r="G22" s="24"/>
       <c r="H22" s="21"/>
     </row>
     <row r="23" spans="1:16138" customHeight="1" ht="15">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="18" t="s">
-        <v>36</v>
+      <c r="A23" s="37" t="s">
+        <v>43</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>36</v>
+      <c r="B23" s="37" t="s">
+        <v>19</v>
       </c>
-      <c r="E23" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="36"/>
       <c r="G23" s="24"/>
       <c r="H23" s="21"/>
     </row>
     <row r="24" spans="1:16138" customHeight="1" ht="15">
-      <c r="A24" s="37"/>
-      <c r="B24" s="37"/>
-      <c r="C24" s="18" t="s">
-        <v>36</v>
+      <c r="A24" s="37" t="s">
+        <v>44</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>36</v>
+      <c r="B24" s="37" t="s">
+        <v>21</v>
       </c>
-      <c r="E24" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F24" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="36"/>
       <c r="G24" s="22"/>
       <c r="H24" s="21"/>
     </row>
     <row r="25" spans="1:16138" customHeight="1" ht="15">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="18" t="s">
-        <v>36</v>
+      <c r="A25" s="37" t="s">
+        <v>45</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>36</v>
+      <c r="B25" s="52" t="s">
+        <v>23</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F25" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="36"/>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
     </row>
     <row r="26" spans="1:16138" customHeight="1" ht="15">
-      <c r="A26" s="37"/>
-      <c r="B26" s="37"/>
-      <c r="C26" s="18" t="s">
-        <v>36</v>
+      <c r="A26" s="37" t="s">
+        <v>46</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>36</v>
+      <c r="B26" s="53" t="s">
+        <v>25</v>
       </c>
-      <c r="E26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F26" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="22"/>
       <c r="H26" s="21"/>
     </row>
     <row r="27" spans="1:16138" customHeight="1" ht="15">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="18" t="s">
-        <v>36</v>
+      <c r="A27" s="37" t="s">
+        <v>47</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>36</v>
+      <c r="B27" s="37" t="s">
+        <v>27</v>
       </c>
-      <c r="E27" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F27" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="24"/>
       <c r="H27" s="21"/>
     </row>
     <row r="28" spans="1:16138" customHeight="1" ht="15">
-      <c r="A28" s="37"/>
-      <c r="B28" s="37"/>
-      <c r="C28" s="18" t="s">
-        <v>36</v>
+      <c r="A28" s="37" t="s">
+        <v>48</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>36</v>
+      <c r="B28" s="37" t="s">
+        <v>29</v>
       </c>
-      <c r="E28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="36"/>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
     </row>
     <row r="29" spans="1:16138" customHeight="1" ht="15">
-      <c r="A29" s="37"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="18" t="s">
-        <v>36</v>
+      <c r="A29" s="37" t="s">
+        <v>49</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>36</v>
+      <c r="B29" s="37" t="s">
+        <v>13</v>
       </c>
-      <c r="E29" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F29" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="36"/>
       <c r="G29" s="22"/>
       <c r="H29" s="21"/>
     </row>
     <row r="30" spans="1:16138" customHeight="1" ht="15">
-      <c r="A30" s="37"/>
-      <c r="B30" s="37"/>
-      <c r="C30" s="18" t="s">
-        <v>36</v>
+      <c r="A30" s="37" t="s">
+        <v>50</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>36</v>
+      <c r="B30" s="37" t="s">
+        <v>19</v>
       </c>
-      <c r="E30" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="36"/>
       <c r="G30" s="22"/>
       <c r="H30" s="21"/>
     </row>
     <row r="31" spans="1:16138" customHeight="1" ht="15">
-      <c r="A31" s="37"/>
-      <c r="B31" s="37"/>
-      <c r="C31" s="18" t="s">
-        <v>36</v>
+      <c r="A31" s="37" t="s">
+        <v>51</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>36</v>
+      <c r="B31" s="37" t="s">
+        <v>21</v>
       </c>
-      <c r="E31" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F31" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C31" s="18"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="36"/>
       <c r="G31" s="22"/>
       <c r="H31" s="21"/>
     </row>
     <row r="32" spans="1:16138" customHeight="1" ht="15">
-      <c r="A32" s="37"/>
-      <c r="B32" s="37"/>
-      <c r="C32" s="18" t="s">
-        <v>36</v>
+      <c r="A32" s="37" t="s">
+        <v>52</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>36</v>
+      <c r="B32" s="52" t="s">
+        <v>23</v>
       </c>
-      <c r="E32" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="36"/>
       <c r="G32" s="22"/>
       <c r="H32" s="21"/>
     </row>
     <row r="33" spans="1:16138" customHeight="1" ht="15">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="18" t="s">
-        <v>36</v>
+      <c r="A33" s="37" t="s">
+        <v>53</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>36</v>
+      <c r="B33" s="53" t="s">
+        <v>25</v>
       </c>
-      <c r="E33" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F33" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="36"/>
       <c r="G33" s="24"/>
       <c r="H33" s="21"/>
     </row>
     <row r="34" spans="1:16138" customHeight="1" ht="15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="18" t="s">
-        <v>36</v>
+      <c r="A34" s="37" t="s">
+        <v>54</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>36</v>
+      <c r="B34" s="37" t="s">
+        <v>27</v>
       </c>
-      <c r="E34" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F34" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="36"/>
       <c r="G34" s="22"/>
       <c r="H34" s="21"/>
     </row>
     <row r="35" spans="1:16138" customHeight="1" ht="15">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="18" t="s">
-        <v>36</v>
+      <c r="A35" s="37" t="s">
+        <v>55</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>36</v>
+      <c r="B35" s="37" t="s">
+        <v>29</v>
       </c>
-      <c r="E35" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="F35" s="36" t="s">
-        <v>36</v>
-      </c>
+      <c r="C35" s="18"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="36"/>
       <c r="G35" s="22"/>
       <c r="H35" s="21"/>
     </row>
@@ -17605,16 +17596,16 @@
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="21"/>
@@ -17623,16 +17614,16 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="21"/>
@@ -17641,45 +17632,45 @@
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:16138" customHeight="1" ht="15">
       <c r="A39" s="48" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="19" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:16138" customHeight="1" ht="15" s="11" customFormat="1">
       <c r="A40" s="48" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
       <c r="D40" s="50"/>
       <c r="E40" s="35" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="44"/>

--- a/public/出勤簿.xlsx
+++ b/public/出勤簿.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>出勤簿</t>
   </si>
@@ -23,7 +23,7 @@
     <t>名前：</t>
   </si>
   <si>
-    <t>田中太郎</t>
+    <t>上司次郎</t>
   </si>
   <si>
     <t>月日</t>
@@ -60,13 +60,13 @@
     <t>水</t>
   </si>
   <si>
-    <t>09:00</t>
-  </si>
-  <si>
     <t>18:00</t>
   </si>
   <si>
-    <t>08:00</t>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>02:00</t>
   </si>
   <si>
     <t>00:00</t>
@@ -111,12 +111,6 @@
     <t>2/8</t>
   </si>
   <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
     <t>2/9</t>
   </si>
   <si>
@@ -127,15 +121,6 @@
   </si>
   <si>
     <t>2/12</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>21:35</t>
-  </si>
-  <si>
-    <t>00:35</t>
   </si>
   <si>
     <t>2/13</t>
@@ -192,16 +177,7 @@
     <t>合計勤務時間</t>
   </si>
   <si>
-    <t>80:00</t>
-  </si>
-  <si>
-    <t>01:35</t>
-  </si>
-  <si>
     <t>総合計</t>
-  </si>
-  <si>
-    <t>80:35</t>
   </si>
 </sst>
 </file>
@@ -17149,18 +17125,10 @@
       <c r="B9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="22"/>
       <c r="H9" s="21"/>
     </row>
@@ -17171,18 +17139,10 @@
       <c r="B10" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="22"/>
       <c r="H10" s="21"/>
     </row>
@@ -17193,18 +17153,10 @@
       <c r="B11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="36"/>
       <c r="G11" s="22"/>
       <c r="H11" s="21"/>
     </row>
@@ -17215,18 +17167,10 @@
       <c r="B12" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="23"/>
       <c r="H12" s="21"/>
     </row>
@@ -17265,112 +17209,72 @@
       <c r="B15" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>32</v>
-      </c>
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="36"/>
       <c r="G15" s="22"/>
       <c r="H15" s="21"/>
     </row>
     <row r="16" spans="1:16138" customHeight="1" ht="15">
       <c r="A16" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="36"/>
       <c r="G16" s="22"/>
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="1:16138" customHeight="1" ht="15">
       <c r="A17" s="37" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>32</v>
-      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="36"/>
       <c r="G17" s="22"/>
       <c r="H17" s="21"/>
     </row>
     <row r="18" spans="1:16138" customHeight="1" ht="15">
       <c r="A18" s="37" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B18" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F18" s="36" t="s">
-        <v>17</v>
-      </c>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="36"/>
       <c r="G18" s="22"/>
       <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:16138" customHeight="1" ht="15">
       <c r="A19" s="37" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="36" t="s">
-        <v>39</v>
-      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="36"/>
       <c r="G19" s="22"/>
       <c r="H19" s="21"/>
     </row>
     <row r="20" spans="1:16138" customHeight="1" ht="15">
       <c r="A20" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B20" s="37" t="s">
         <v>27</v>
@@ -17384,7 +17288,7 @@
     </row>
     <row r="21" spans="1:16138" customHeight="1" ht="15">
       <c r="A21" s="37" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B21" s="37" t="s">
         <v>29</v>
@@ -17398,7 +17302,7 @@
     </row>
     <row r="22" spans="1:16138" customHeight="1" ht="15">
       <c r="A22" s="37" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B22" s="37" t="s">
         <v>13</v>
@@ -17412,7 +17316,7 @@
     </row>
     <row r="23" spans="1:16138" customHeight="1" ht="15">
       <c r="A23" s="37" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="37" t="s">
         <v>19</v>
@@ -17426,7 +17330,7 @@
     </row>
     <row r="24" spans="1:16138" customHeight="1" ht="15">
       <c r="A24" s="37" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" s="37" t="s">
         <v>21</v>
@@ -17440,7 +17344,7 @@
     </row>
     <row r="25" spans="1:16138" customHeight="1" ht="15">
       <c r="A25" s="37" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B25" s="52" t="s">
         <v>23</v>
@@ -17454,7 +17358,7 @@
     </row>
     <row r="26" spans="1:16138" customHeight="1" ht="15">
       <c r="A26" s="37" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B26" s="53" t="s">
         <v>25</v>
@@ -17468,7 +17372,7 @@
     </row>
     <row r="27" spans="1:16138" customHeight="1" ht="15">
       <c r="A27" s="37" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B27" s="37" t="s">
         <v>27</v>
@@ -17482,7 +17386,7 @@
     </row>
     <row r="28" spans="1:16138" customHeight="1" ht="15">
       <c r="A28" s="37" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B28" s="37" t="s">
         <v>29</v>
@@ -17496,7 +17400,7 @@
     </row>
     <row r="29" spans="1:16138" customHeight="1" ht="15">
       <c r="A29" s="37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B29" s="37" t="s">
         <v>13</v>
@@ -17510,7 +17414,7 @@
     </row>
     <row r="30" spans="1:16138" customHeight="1" ht="15">
       <c r="A30" s="37" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B30" s="37" t="s">
         <v>19</v>
@@ -17524,7 +17428,7 @@
     </row>
     <row r="31" spans="1:16138" customHeight="1" ht="15">
       <c r="A31" s="37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B31" s="37" t="s">
         <v>21</v>
@@ -17538,7 +17442,7 @@
     </row>
     <row r="32" spans="1:16138" customHeight="1" ht="15">
       <c r="A32" s="37" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B32" s="52" t="s">
         <v>23</v>
@@ -17552,7 +17456,7 @@
     </row>
     <row r="33" spans="1:16138" customHeight="1" ht="15">
       <c r="A33" s="37" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B33" s="53" t="s">
         <v>25</v>
@@ -17566,7 +17470,7 @@
     </row>
     <row r="34" spans="1:16138" customHeight="1" ht="15">
       <c r="A34" s="37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B34" s="37" t="s">
         <v>27</v>
@@ -17580,7 +17484,7 @@
     </row>
     <row r="35" spans="1:16138" customHeight="1" ht="15">
       <c r="A35" s="37" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B35" s="37" t="s">
         <v>29</v>
@@ -17596,16 +17500,16 @@
       <c r="A36" s="37"/>
       <c r="B36" s="37"/>
       <c r="C36" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E36" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F36" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G36" s="22"/>
       <c r="H36" s="21"/>
@@ -17614,16 +17518,16 @@
       <c r="A37" s="37"/>
       <c r="B37" s="37"/>
       <c r="C37" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E37" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F37" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G37" s="22"/>
       <c r="H37" s="21"/>
@@ -17632,45 +17536,45 @@
       <c r="A38" s="37"/>
       <c r="B38" s="37"/>
       <c r="C38" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E38" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F38" s="36" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="G38" s="22"/>
       <c r="H38" s="21"/>
     </row>
     <row r="39" spans="1:16138" customHeight="1" ht="15">
       <c r="A39" s="48" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B39" s="49"/>
       <c r="C39" s="49"/>
       <c r="D39" s="50"/>
       <c r="E39" s="19" t="s">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="F39" s="19" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G39" s="44"/>
       <c r="H39" s="45"/>
     </row>
     <row r="40" spans="1:16138" customHeight="1" ht="15" s="11" customFormat="1">
       <c r="A40" s="48" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B40" s="49"/>
       <c r="C40" s="49"/>
       <c r="D40" s="50"/>
       <c r="E40" s="35" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="F40" s="38"/>
       <c r="G40" s="44"/>
